--- a/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
+++ b/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>914535398.7719946</v>
+        <v>4708911903.655326</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>803658454.3986819</v>
+        <v>4697852228.491651</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>710046763.5766441</v>
+        <v>4691529631.606603</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630002727.5509155</v>
+        <v>4684196982.25127</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>561599544.3731598</v>
+        <v>4677636967.921388</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>502982097.3554441</v>
+        <v>4671763117.96255</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>452616412.5132017</v>
+        <v>4666499661.451083</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>409229520.3632785</v>
+        <v>4661779898.38183</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>371762284.8964312</v>
+        <v>4657545371.665108</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>339330818.034349</v>
+        <v>4653745589.370665</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>311195619.273878</v>
+        <v>4650336145.913322</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>286735133.8634154</v>
+        <v>4647275056.684077</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>265426599.3997293</v>
+        <v>4644529940.549157</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>246828655.0895995</v>
+        <v>4642070199.637834</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>230567924.1426064</v>
+        <v>4639867993.365237</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>216326953.2079341</v>
+        <v>4637901987.36786</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>203835826.8611163</v>
+        <v>4636150367.117245</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>192863550.5046862</v>
+        <v>4634594388.374777</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>183212918.0561143</v>
+        <v>4633219592.453928</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>174715253.7856629</v>
+        <v>4632009972.174535</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>167224818.1187422</v>
+        <v>4630957246.597859</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>160616054.5580536</v>
+        <v>4630045853.782222</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>154781109.6897605</v>
+        <v>4629268010.449401</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>149625646.0919843</v>
+        <v>4628616398.909314</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>145069032.2212045</v>
+        <v>4628082994.882037</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>141040571.9184292</v>
+        <v>4627660756.704792</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>137479008.1562379</v>
+        <v>4627342405.717463</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>134330413.8995377</v>
+        <v>4627126006.774207</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>131548210.4063212</v>
+        <v>4627006532.412654</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>129091509.9864939</v>
+        <v>4626975715.857222</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>126923950.3197796</v>
+        <v>4627034982.629988</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>125014411.8209667</v>
+        <v>4627179834.002506</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>123335068.7646443</v>
+        <v>4627406063.804739</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>121861670.4575381</v>
+        <v>4627711722.741992</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>120572744.9806055</v>
+        <v>4628095859.250946</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>119449704.0583056</v>
+        <v>4628554258.54429</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>118475508.1987317</v>
+        <v>4629085504.894236</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>117635894.8659825</v>
+        <v>4629689206.592012</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>116917387.4647711</v>
+        <v>4630362992.101621</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>116308573.1792417</v>
+        <v>4631105448.894292</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>115799216.6930006</v>
+        <v>4631917188.311491</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>115380259.460525</v>
+        <v>4632794447.765155</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>115043813.2431137</v>
+        <v>4633738400.722442</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>114783066.3893778</v>
+        <v>4634746064.315273</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>114591255.899819</v>
+        <v>4635817263.12483</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>114462730.997577</v>
+        <v>4636952093.031899</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>114392438.328078</v>
+        <v>4638146356.486815</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>114376456.5603715</v>
+        <v>4639402666.684064</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>114410318.7977958</v>
+        <v>4640717744.067704</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>114491054.0183338</v>
+        <v>4642092318.243223</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>114614732.5769963</v>
+        <v>4643524279.038618</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>114779304.1777844</v>
+        <v>4645014319.95922</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>114982550.7413014</v>
+        <v>4646560082.646759</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>115221875.5694525</v>
+        <v>4648162718.58731</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>115495421.4355316</v>
+        <v>4649819415.632175</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>115800776.5484157</v>
+        <v>4651529632.152351</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>116137690.1761725</v>
+        <v>4653294994.786317</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>116504098.3524942</v>
+        <v>4655111791.861699</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>116898990.5806152</v>
+        <v>4656980272.141753</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>117321332.1372547</v>
+        <v>4658900129.383247</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>117770288.2453707</v>
+        <v>4660869248.055856</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>118245526.2790847</v>
+        <v>4662887743.472142</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>118745023.0000441</v>
+        <v>4664954435.097996</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>119269071.2625694</v>
+        <v>4667067555.782003</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>119817199.9058153</v>
+        <v>4669226953.415406</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>120388440.1370198</v>
+        <v>4671432127.915009</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>120983098.3886339</v>
+        <v>4673681414.957994</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>121600569.8973713</v>
+        <v>4675973164.150239</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>122239981.9564268</v>
+        <v>4678307052.54038</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>122901794.5257878</v>
+        <v>4680681842.228525</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>123585499.9653146</v>
+        <v>4683096629.137795</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>124290809.4527665</v>
+        <v>4685550350.015129</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>125017927.5856799</v>
+        <v>4688042631.899009</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>125766909.9627122</v>
+        <v>4690569241.09409</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>126537119.3117138</v>
+        <v>4693133559.644498</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>127328708.6944435</v>
+        <v>4695730975.186604</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>128141692.033354</v>
+        <v>4698361350.004378</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>128975492.7968764</v>
+        <v>4701024599.788464</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>129830608.5190556</v>
+        <v>4703718348.010913</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>130706892.0846467</v>
+        <v>4706440803.956314</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>131603851.7004478</v>
+        <v>4709192792.310213</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>132521750.82937</v>
+        <v>4711971882.370692</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>133460415.40961</v>
+        <v>4714777595.306494</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>134420182.199238</v>
+        <v>4717608663.826923</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>135400839.9985183</v>
+        <v>4720463507.215507</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>136402307.1968204</v>
+        <v>4723341371.096835</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>137424433.9510277</v>
+        <v>4726242056.198331</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>138467450.0860251</v>
+        <v>4729164583.495418</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>139530952.7511901</v>
+        <v>4732106105.356884</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>140615002.2987322</v>
+        <v>4735067933.077929</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>141719798.1345709</v>
+        <v>4738047739.646896</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>142844844.8855172</v>
+        <v>4741045972.262685</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>143990302.6669203</v>
+        <v>4744061470.831671</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>145156071.9334616</v>
+        <v>4747092478.606146</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>146341578.3640745</v>
+        <v>4750140591.886199</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>147547721.6319892</v>
+        <v>4753204232.075768</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>148773180.4435425</v>
+        <v>4756282162.264293</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>150018681.214616</v>
+        <v>4759374852.638892</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>151283534.8846625</v>
+        <v>4762483274.844368</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>152567676.3142177</v>
+        <v>4765604886.103858</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>153870586.2103551</v>
+        <v>4768740776.877911</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>155193236.1549758</v>
+        <v>4771891746.117313</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>156533945.2950346</v>
+        <v>4775056570.2948</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>157893104.1177603</v>
+        <v>4778236318.113056</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>159270723.2478734</v>
+        <v>4781431118.614208</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>160666705.998823</v>
+        <v>4784642824.009334</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>162079927.3826819</v>
+        <v>4787869733.777068</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>163511267.6801782</v>
+        <v>4791114854.427026</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>164959573.9351362</v>
+        <v>4794378389.989118</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>166425218.3514106</v>
+        <v>4797659650.631762</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>167907543.7057237</v>
+        <v>4800963737.498507</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>169406300.1208922</v>
+        <v>4804286691.052116</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>170921532.6351455</v>
+        <v>4807635745.258732</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>172453237.7956177</v>
+        <v>4811008009.602903</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>174001017.2948092</v>
+        <v>4814408521.234348</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>175564220.2442902</v>
+        <v>4817836008.734747</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>177143303.4015117</v>
+        <v>4821297198.787728</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>178737509.0367556</v>
+        <v>4824788954.252926</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>180347064.4507755</v>
+        <v>4828319535.770556</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>181971552.3815427</v>
+        <v>4831886490.676591</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>183610763.8014717</v>
+        <v>4835495443.175931</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>185264836.5633824</v>
+        <v>4839147583.454853</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>186933363.9772948</v>
+        <v>4842848860.10568</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>188616191.1900762</v>
+        <v>4846599377.630828</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>190312781.8362629</v>
+        <v>4850406705.467948</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>192023469.9137461</v>
+        <v>4854269999.457296</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>193748571.1327896</v>
+        <v>4858196550.990322</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>195487263.7747948</v>
+        <v>4862185183.34874</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>197240695.6249121</v>
+        <v>4866249788.116101</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>199008541.4673571</v>
+        <v>4870384836.231504</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>200789865.1025997</v>
+        <v>4874599692.263483</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>202586120.535818</v>
+        <v>4878898451.353892</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>204397046.1140696</v>
+        <v>4883286700.640871</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>206222804.5638545</v>
+        <v>4887765073.221263</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>208063805.8871701</v>
+        <v>4892345576.362738</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>209919825.8600492</v>
+        <v>4897029766.412994</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>211791525.302447</v>
+        <v>4901819630.046741</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>213679264.699538</v>
+        <v>4906727523.477229</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>215583793.5217943</v>
+        <v>4911757609.66356</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>217505015.0034339</v>
+        <v>4916909536.385939</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>219444028.9005202</v>
+        <v>4922195197.017077</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>221401209.9905715</v>
+        <v>4927620583.888714</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>223377346.8172047</v>
+        <v>4933189500.155491</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>225373880.3758043</v>
+        <v>4938909463.057789</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>227390380.4964056</v>
+        <v>4944786581.877479</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>229428744.0970212</v>
+        <v>4950828763.246417</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>231489213.6150504</v>
+        <v>4957039258.609961</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>233572984.1099317</v>
+        <v>4963428652.670394</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>235681480.44002</v>
+        <v>4970000686.713675</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>237815314.8351117</v>
+        <v>4976763289.464465</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>239976020.8864215</v>
+        <v>4983723188.82494</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>242164908.1231585</v>
+        <v>4990887927.259146</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>244383827.1316603</v>
+        <v>4998262619.095074</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>246633718.9959317</v>
+        <v>5005856751.53151</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>248915753.6830797</v>
+        <v>5013675642.341637</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>251231925.5972852</v>
+        <v>5021727479.912211</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>253584329.1020315</v>
+        <v>5030016709.448863</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>255974039.2694198</v>
+        <v>5038554642.216428</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>258403004.5046629</v>
+        <v>5047343869.275168</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>260873054.8780341</v>
+        <v>5056394742.167563</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>263386081.5450016</v>
+        <v>5065712920.652608</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>265944906.735066</v>
+        <v>5075305449.97928</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>268551202.0386099</v>
+        <v>5085179939.209044</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>271206493.7288541</v>
+        <v>5095342093.851987</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>273914140.1100857</v>
+        <v>5105797994.67034</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>276675526.7599359</v>
+        <v>5116558180.244619</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>279493638.9569336</v>
+        <v>5127626884.14481</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>282370977.7535309</v>
+        <v>5139011510.158073</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>285309501.8352344</v>
+        <v>5150719651.763454</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>288311231.6088452</v>
+        <v>5162754793.805689</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>291378976.4884136</v>
+        <v>5175128501.004633</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>294516048.4090725</v>
+        <v>5187842065.879645</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>297724476.6377384</v>
+        <v>5200904525.333659</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>301008446.876522</v>
+        <v>5214320342.199239</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>304370392.7380479</v>
+        <v>5228099841.196127</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>307813353.6115014</v>
+        <v>5242244536.35485</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>311339928.1468444</v>
+        <v>5256760818.515832</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>314952414.4385043</v>
+        <v>5271660241.121414</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>318654475.1788599</v>
+        <v>5286940031.111692</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>322448653.1709313</v>
+        <v>5302612048.25278</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>326337637.5541237</v>
+        <v>5318679899.419345</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>330324835.4965802</v>
+        <v>5335148446.014764</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>334413117.8630024</v>
+        <v>5352022949.72597</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>338605548.4007356</v>
+        <v>5369311315.863318</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>342905044.211417</v>
+        <v>5387015412.802454</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>347314308.5363825</v>
+        <v>5405141447.823638</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>351836634.2445768</v>
+        <v>5423694837.828229</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>356474513.4721709</v>
+        <v>5442680320.737215</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>361230950.4808659</v>
+        <v>5462100573.591792</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>366109503.6492165</v>
+        <v>5481963965.604547</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>371112241.1900007</v>
+        <v>5502271024.935725</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>376242432.1499531</v>
+        <v>5523028582.656231</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>381503016.3069683</v>
+        <v>5544239136.059872</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>386896144.3562114</v>
+        <v>5565909990.03807</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>392424858.0912352</v>
+        <v>5588041778.501105</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>398091766.8607065</v>
+        <v>5610638414.031424</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>403899555.7140899</v>
+        <v>5633707955.479185</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>409851009.9378402</v>
+        <v>5657248746.1813</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>415948183.1331937</v>
+        <v>5681268102.033044</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>422193846.9080991</v>
+        <v>5705768087.95845</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>428590611.7488777</v>
+        <v>5730755479.487785</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>435140753.4115362</v>
+        <v>5756229515.851996</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>441846573.3174779</v>
+        <v>5782194322.605524</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>448710513.4520469</v>
+        <v>5808657184.208097</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>455734072.3699698</v>
+        <v>5835617880.386903</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>462920446.9849669</v>
+        <v>5863081201.570941</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>470270906.4034805</v>
+        <v>5891047647.944381</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>477787514.5777878</v>
+        <v>5919524300.289454</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>485472391.2680445</v>
+        <v>5948513444.863752</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>493327248.0337802</v>
+        <v>5978017114.551535</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>501354408.1479135</v>
+        <v>6008039646.839729</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>509555211.8027062</v>
+        <v>6038583407.453794</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>517931650.007629</v>
+        <v>6069652773.21994</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>526485435.795551</v>
+        <v>6101249714.37958</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>535218273.5695537</v>
+        <v>6133378007.838001</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>544131699.2379879</v>
+        <v>6166042774.715519</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>553227552.4385995</v>
+        <v>6199244314.278016</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>562506775.520576</v>
+        <v>6232989024.005107</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>571972419.4926859</v>
+        <v>6267278877.785424</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>581623988.9005898</v>
+        <v>6302118077.391571</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>591463857.7068989</v>
+        <v>6337508756.877973</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>601493741.0648204</v>
+        <v>6373454635.064609</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>611715006.5657141</v>
+        <v>6409963336.824791</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>622127726.5478901</v>
+        <v>6447034180.04322</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>632734959.4942411</v>
+        <v>6484674877.222361</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>643536619.0410656</v>
+        <v>6522886178.275369</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>654534244.8371022</v>
+        <v>6561674054.496499</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>665728976.6201562</v>
+        <v>6601043849.909977</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>677121945.2912035</v>
+        <v>6640999193.164758</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>688714752.2078651</v>
+        <v>6681544264.920491</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>700508662.9441408</v>
+        <v>6722682909.407969</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>712504749.6279619</v>
+        <v>6764423644.591565</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>724704008.2856529</v>
+        <v>6806767275.722309</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>737107830.3733412</v>
+        <v>6849722073.506098</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>749717452.4425688</v>
+        <v>6893292996.682167</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>762533501.3996952</v>
+        <v>6937484671.801928</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>775557510.5845625</v>
+        <v>6982303983.988386</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>788790743.3037759</v>
+        <v>7027756189.093392</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>802234299.0215731</v>
+        <v>7073848645.01875</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>815888574.9238791</v>
+        <v>7120588020.00313</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>829756068.7288376</v>
+        <v>7167978997.26286</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>843837646.4837683</v>
+        <v>7216030384.016993</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>858133926.5791994</v>
+        <v>7264748740.49167</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>872645775.6468432</v>
+        <v>7314141198.511459</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>887374936.6891642</v>
+        <v>7364216608.479118</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>902323716.6024731</v>
+        <v>7414980752.870172</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>917492808.0013371</v>
+        <v>7466443855.057924</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>932881871.0695179</v>
+        <v>7518614299.332075</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>948494165.6745795</v>
+        <v>7571499501.160285</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>964329391.3128282</v>
+        <v>7625108722.828158</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>980391248.6228986</v>
+        <v>7679453069.958447</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>996678917.6752019</v>
+        <v>7734540336.419672</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1013194092.573251</v>
+        <v>7790381980.864827</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1029939091.454255</v>
+        <v>7846985939.496517</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1046915833.650059</v>
+        <v>7904364802.951374</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1064124041.249043</v>
+        <v>7962528670.589451</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1081566874.749952</v>
+        <v>8021489343.130139</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1099244413.181241</v>
+        <v>8081257913.848284</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1117159474.680219</v>
+        <v>8141844973.243807</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1135312922.479089</v>
+        <v>8203264480.313879</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1153707726.825588</v>
+        <v>8265528737.502865</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1172344654.365706</v>
+        <v>8328649218.000633</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1191225818.653109</v>
+        <v>8392639638.549659</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1210351883.792051</v>
+        <v>8457516273.094724</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1229725481.079383</v>
+        <v>8523287273.279172</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1249349462.825872</v>
+        <v>8589972312.646816</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1269225081.374392</v>
+        <v>8657582669.070982</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1289354608.445154</v>
+        <v>8726136613.043556</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1309740186.505494</v>
+        <v>8795646366.992798</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1330383517.833606</v>
+        <v>8866128784.953236</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1351287825.205696</v>
+        <v>8937602070.091541</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1372455045.880887</v>
+        <v>9010077926.596279</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1393886874.214952</v>
+        <v>9083577903.800001</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1415587023.670212</v>
+        <v>9158117775.196291</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1437556968.552649</v>
+        <v>9233714409.124849</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1459799671.604518</v>
+        <v>9310386338.089048</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1482317352.167835</v>
+        <v>9388152419.485859</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1505113931.223514</v>
+        <v>9467031937.529493</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>1528191723.66782</v>
+        <v>9547043047.684996</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>1551553330.858429</v>
+        <v>9628204977.530197</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>1575201512.961593</v>
+        <v>9710539897.575256</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>1599139489.439399</v>
+        <v>9794067291.933235</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>1623370335.792663</v>
+        <v>9878806011.849289</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>1647897351.324986</v>
+        <v>9964780181.349199</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1672723764.115496</v>
+        <v>10052009965.03187</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1697851688.733649</v>
+        <v>10140518016.2273</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1723286524.590253</v>
+        <v>10230324974.09415</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1749030719.49614</v>
+        <v>10321455359.68253</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1775088916.006882</v>
+        <v>10413933828.61229</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>1801462975.48669</v>
+        <v>10507780020.28381</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1828158527.394963</v>
+        <v>10603019417.60924</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1855177408.380708</v>
+        <v>10699677657.62465</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1882525069.754186</v>
+        <v>10797777709.95765</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1910205721.619544</v>
+        <v>10897345118.49651</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1938221492.284304</v>
+        <v>10998405619.10659</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1966579031.171285</v>
+        <v>11100982428.03232</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1995280641.904767</v>
+        <v>11205104646.60178</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2024331480.165312</v>
+        <v>11310796411.28063</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2053735473.776971</v>
+        <v>11418084014.72703</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2083497840.504649</v>
+        <v>11526995512.76915</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2113621570.914088</v>
+        <v>11637556877.28443</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2137672824.694416</v>
+        <v>11706863346.98151</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2162031839.382528</v>
+        <v>11777437582.01035</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2186698745.203087</v>
+        <v>11849282526.09527</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2211678582.576646</v>
+        <v>11922431705.47743</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2236975808.60403</v>
+        <v>11996902854.84972</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2262593347.752341</v>
+        <v>12072719370.78913</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2288535072.077831</v>
+        <v>12149905299.52281</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2314804847.460894</v>
+        <v>12228477877.03378</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2341406182.756882</v>
+        <v>12308463882.91789</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2368344699.846863</v>
+        <v>12389883969.00108</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2395621713.21249</v>
+        <v>12472760894.60807</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2423243300.228499</v>
+        <v>12557114154.51092</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2451213163.498209</v>
+        <v>12642971449.52114</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2479534529.427969</v>
+        <v>12730349033.17874</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2508210565.017714</v>
+        <v>12819272171.01294</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2537246330.550688</v>
+        <v>12909762171.60625</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2566645847.470491</v>
+        <v>13001839928.44598</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2596413019.386228</v>
+        <v>13095528620.91853</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2626552036.487272</v>
+        <v>13190847960.4261</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>2657065470.996108</v>
+        <v>13287819130.85373</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>2687958558.392723</v>
+        <v>13386465549.97132</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>2719234218.619829</v>
+        <v>13486804115.10101</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>2750896906.227627</v>
+        <v>13588858406.60532</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>2782949848.787685</v>
+        <v>13692646226.72068</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>2815395984.471213</v>
+        <v>13798186372.92856</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>2848240767.819993</v>
+        <v>13905500577.29624</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>2881485741.751687</v>
+        <v>14014603957.6067</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>2915134135.836051</v>
+        <v>14125518654.30785</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>2949190755.353203</v>
+        <v>14238256833.21875</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>2983656629.485758</v>
+        <v>14352838534.22387</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>3018536308.766187</v>
+        <v>14469280916.88657</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3053832427.787299</v>
+        <v>14587594368.35716</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>3089546451.132243</v>
+        <v>14707799156.4658</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>3125681105.063402</v>
+        <v>14829904054.90242</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>3162240099.277403</v>
+        <v>14953926545.97945</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3199224218.795835</v>
+        <v>15079874532.92558</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>3236636001.827709</v>
+        <v>15207761978.24598</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>3274475959.082993</v>
+        <v>15337598007.54861</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>3312746640.912663</v>
+        <v>15469390583.12591</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>3351450092.125976</v>
+        <v>15603148021.42469</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>3390585634.278371</v>
+        <v>15738878957.44071</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>3430154311.576481</v>
+        <v>15876586436.5731</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3470156967.75219</v>
+        <v>16016275220.32471</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>3510592594.486134</v>
+        <v>16157950246.31841</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>3551462576.309602</v>
+        <v>16301611233.03035</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>3592765332.190233</v>
+        <v>16447260432.36046</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>3634500385.801112</v>
+        <v>16594895033.45844</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>3676666660.506752</v>
+        <v>16744511842.6309</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>3719261871.176808</v>
+        <v>16896109578.76502</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>3762284858.681779</v>
+        <v>17049681367.4717</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>3805733260.751727</v>
+        <v>17205219872.64722</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>3849605172.782235</v>
+        <v>17362715354.35705</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>3893896194.12387</v>
+        <v>17522159263.24038</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>3938605384.262435</v>
+        <v>17683538322.21238</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>3983726580.056097</v>
+        <v>17846839478.7103</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4026821515.114421</v>
+        <v>17997273353.25145</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>4070299517.589587</v>
+        <v>18149462357.50141</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>4114155964.664034</v>
+        <v>18303386719.00173</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>4158384149.123607</v>
+        <v>18459026667.27567</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4202979665.731372</v>
+        <v>18616359757.29476</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>4247936010.752534</v>
+        <v>18775363190.87242</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>4293247256.62691</v>
+        <v>18936011172.10173</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>4338906315.555911</v>
+        <v>19098277362.88029</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>4384904592.772924</v>
+        <v>19262130770.61353</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>4431235800.550736</v>
+        <v>19427541375.04364</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>4477891570.561911</v>
+        <v>19594477761.20767</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>4524862923.338912</v>
+        <v>19762904121.32352</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>4572141242.345463</v>
+        <v>19932784657.55545</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>4619716482.495647</v>
+        <v>20104081128.58508</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>4667579331.480712</v>
+        <v>20276754733.52938</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>4713062807.78848</v>
+        <v>20445227269.8861</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>4758795254.726502</v>
+        <v>20614948478.89935</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>4804765224.504254</v>
+        <v>20785875617.72906</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>4851056905.732801</v>
+        <v>20957964272.01191</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>4897560933.257099</v>
+        <v>21131164909.71852</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>4944265667.433748</v>
+        <v>21305430220.89998</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>4991158330.024999</v>
+        <v>21480708516.82838</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>5038227030.633236</v>
+        <v>21656948188.02679</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>5085459242.718216</v>
+        <v>21834097123.67321</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>5132840540.302872</v>
+        <v>22012099736.40457</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>5186855824.229562</v>
+        <v>22223680397.37498</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>5241022466.467559</v>
+        <v>22436139759.74288</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>5295325166.235633</v>
+        <v>22649415384.98434</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>5349748232.35511</v>
+        <v>22863439850.46058</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>5404277015.363078</v>
+        <v>23078147985.07374</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>5522939049.187049</v>
+        <v>23293472371.68506</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>5641735935.671407</v>
+        <v>23509111083.30577</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>5758795635.200808</v>
+        <v>23722423092.80972</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>5869282008.554296</v>
+        <v>23926771199.13988</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>5967399651.623592</v>
+        <v>24114418935.31714</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>6056455515.95396</v>
+        <v>24283795130.95467</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>6126744171.013783</v>
+        <v>24429561145.67886</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>6179117741.410542</v>
+        <v>24553756464.07359</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>6216172731.027826</v>
+        <v>24660602962.69721</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>6241341496.046901</v>
+        <v>24755214476.50028</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>6258198246.14572</v>
+        <v>24842678502.37347</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>6270025898.582031</v>
+        <v>24927503245.4538</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>6279601784.831844</v>
+        <v>25013381208.77238</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>6289128216.399565</v>
+        <v>25103139073.4276</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>6300254650.970538</v>
+        <v>25198793319.72871</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>6243072629.636442</v>
+        <v>25171215707.66783</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>6192799196.856131</v>
+        <v>25152641788.70343</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>6149628699.936691</v>
+        <v>25143218701.95102</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>6113481035.085294</v>
+        <v>25142768696.8662</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>6084088227.111826</v>
+        <v>25150890051.20613</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>6061058679.667581</v>
+        <v>25167033245.15304</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>6043930642.03852</v>
+        <v>25190565642.46551</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>6032205280.6443</v>
+        <v>25220809802.05143</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>6025378206.790204</v>
+        <v>25257080837.11781</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>6022954588.272698</v>
+        <v>25298704550.00784</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>6022903536.193689</v>
+        <v>25340044298.34503</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>6024608698.034577</v>
+        <v>25385196246.00391</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>6027983150.944942</v>
+        <v>25433965748.11083</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>6032828532.962946</v>
+        <v>25485871693.18207</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>6038961418.497271</v>
+        <v>25540468648.11692</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>6046212248.968146</v>
+        <v>25597340802.78398</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>6053752399.456906</v>
+        <v>25655171014.27351</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>6054108400.088068</v>
+        <v>25703232155.40426</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>6028574767.096484</v>
+        <v>25714879890.67429</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>5955703278.278714</v>
+        <v>25659485974.0584</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>5821910398.591155</v>
+        <v>25517426241.90176</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>5625150001.219278</v>
+        <v>25285443510.65197</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>5372870935.85063</v>
+        <v>24973874479.93909</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>5077968571.528947</v>
+        <v>24601011101.95069</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>4755103887.363569</v>
+        <v>24187876499.94291</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>4418202852.958249</v>
+        <v>23754638014.51728</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>4079112656.285202</v>
+        <v>23318618290.05185</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>3747111203.25997</v>
+        <v>22893545265.78271</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>3428939043.124848</v>
+        <v>22489525774.4394</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>3129098414.529196</v>
+        <v>22113435715.07116</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>2850255547.273018</v>
+        <v>21769457021.88709</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>2593659573.259643</v>
+        <v>21459668255.49069</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>2359503630.94415</v>
+        <v>21184555868.34266</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>2147241383.150069</v>
+        <v>20943467347.56846</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>1955836515.044775</v>
+        <v>20734970985.25601</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>1783947759.082936</v>
+        <v>20557141580.30492</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>1630072773.1982</v>
+        <v>20407765506.61117</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>1492651291.012835</v>
+        <v>20284500603.77869</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>1370132079.201571</v>
+        <v>20184988092.65782</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>1261023362.426203</v>
+        <v>20106925578.40324</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>1163917445.130616</v>
+        <v>20048115817.74327</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>1077510578.99752</v>
+        <v>20006504330.66357</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>1000608622.117249</v>
+        <v>19980185730.15795</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>932130263.0541528</v>
+        <v>19967411306.99717</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>871101578.8474605</v>
+        <v>19966596143.99117</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>816650882.2065194</v>
+        <v>19976306839.76071</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>768001903.5073816</v>
+        <v>19995253557.19442</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>724467479.5985025</v>
+        <v>20022280315.41637</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>685438752.8127242</v>
+        <v>20056358710.02495</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>82697874.86781503</v>
+        <v>255011531.6019593</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
+++ b/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4708911903.655326</v>
+        <v>765740476.9219801</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4697852228.491651</v>
+        <v>764843186.4364431</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4691529631.606603</v>
+        <v>764609265.3743387</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4684196982.25127</v>
+        <v>764116034.7593992</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4677636967.921388</v>
+        <v>763665758.8846014</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4671763117.96255</v>
+        <v>763254340.0535032</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4666499661.451083</v>
+        <v>762878772.9288357</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4661779898.38183</v>
+        <v>762535848.291002</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4657545371.665108</v>
+        <v>762222789.9069825</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4653745589.370665</v>
+        <v>761937775.6888713</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4650336145.913322</v>
+        <v>761678426.3164039</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4647275056.684077</v>
+        <v>761442904.7528056</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4644529940.549157</v>
+        <v>761230095.7392559</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4642070199.637834</v>
+        <v>761038480.4102097</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4639867993.365237</v>
+        <v>760867027.3131022</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4637901987.36786</v>
+        <v>760714382.2106346</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4636150367.117245</v>
+        <v>760579397.3011948</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4634594388.374777</v>
+        <v>760461745.4258268</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4633219592.453928</v>
+        <v>760360692.8796766</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4632009972.174535</v>
+        <v>760275877.6400875</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4630957246.597859</v>
+        <v>760206609.0927271</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4630045853.782222</v>
+        <v>760152511.762825</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4629268010.449401</v>
+        <v>760112895.2932515</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4628616398.909314</v>
+        <v>760087575.7310058</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4628082994.882037</v>
+        <v>760075735.4967388</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4627660756.704792</v>
+        <v>760077838.6030378</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4627342405.717463</v>
+        <v>760093050.1396116</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4627126006.774207</v>
+        <v>760121671.9186164</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4627006532.412654</v>
+        <v>760163421.7397779</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4626975715.857222</v>
+        <v>760217905.9869115</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4627034982.629988</v>
+        <v>760285198.7060713</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4627179834.002506</v>
+        <v>760365130.6001272</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4627406063.804739</v>
+        <v>760457532.5755628</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4627711722.741992</v>
+        <v>760562631.817347</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4628095859.250946</v>
+        <v>760680261.5341693</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4628554258.54429</v>
+        <v>760810743.7408731</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4629085504.894236</v>
+        <v>760953263.1613299</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4629689206.592012</v>
+        <v>761108423.3138252</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4630362992.101621</v>
+        <v>761275690.2711564</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4631105448.894292</v>
+        <v>761455744.2604222</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4631917188.311491</v>
+        <v>761648159.0143725</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4632794447.765155</v>
+        <v>761853298.775001</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4633738400.722442</v>
+        <v>762070651.4248791</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4634746064.315273</v>
+        <v>762300569.573194</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4635817263.12483</v>
+        <v>762542819.8976628</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4636952093.031899</v>
+        <v>762797753.1802622</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4638146356.486815</v>
+        <v>763065479.0302738</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4639402666.684064</v>
+        <v>763345569.5417149</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4640717744.067704</v>
+        <v>763638365.1401068</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4642092318.243223</v>
+        <v>763943556.5209069</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4643524279.038618</v>
+        <v>764261659.0916926</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4645014319.95922</v>
+        <v>764592679.173757</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4646560082.646759</v>
+        <v>764936249.1293494</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4648162718.58731</v>
+        <v>765292243.506297</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4649819415.632175</v>
+        <v>765661230.520623</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4651529632.152351</v>
+        <v>766043280.0548725</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4653294994.786317</v>
+        <v>766437932.0583405</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4655111791.861699</v>
+        <v>766845255.6316593</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4656980272.141753</v>
+        <v>767265914.7345538</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4658900129.383247</v>
+        <v>767699265.9019731</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4660869248.055856</v>
+        <v>768145441.2404478</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4662887743.472142</v>
+        <v>768604682.8245367</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4664954435.097996</v>
+        <v>769077174.8526102</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4667067555.782003</v>
+        <v>769562270.5457249</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4669226953.415406</v>
+        <v>770060495.8399401</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4671432127.915009</v>
+        <v>770572096.7974176</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4673681414.957994</v>
+        <v>771096230.7189692</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4675973164.150239</v>
+        <v>771633702.6732128</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4678307052.54038</v>
+        <v>772184543.2558928</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4680681842.228525</v>
+        <v>772748019.6647633</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4683096629.137795</v>
+        <v>773325227.1912855</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4685550350.015129</v>
+        <v>773915055.7435212</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4688042631.899009</v>
+        <v>774518464.5583731</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4690569241.09409</v>
+        <v>775135112.128233</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4693133559.644498</v>
+        <v>775764789.2283615</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4695730975.186604</v>
+        <v>776407862.4825699</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4698361350.004378</v>
+        <v>777064057.5375757</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4701024599.788464</v>
+        <v>777733975.1961838</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4703718348.010913</v>
+        <v>778416980.015435</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4706440803.956314</v>
+        <v>779113644.5798479</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4709192792.310213</v>
+        <v>779823609.2311002</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4711971882.370692</v>
+        <v>780547221.1570917</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4714777595.306494</v>
+        <v>781284099.044209</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4717608663.826923</v>
+        <v>782034886.2962449</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4720463507.215507</v>
+        <v>782799186.7241476</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4723341371.096835</v>
+        <v>783577602.2766207</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4726242056.198331</v>
+        <v>784369432.9552692</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4729164583.495418</v>
+        <v>785175573.071694</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4732106105.356884</v>
+        <v>785995473.7113369</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4735067933.077929</v>
+        <v>786829784.4305093</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4738047739.646896</v>
+        <v>787677897.4946395</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4741045972.262685</v>
+        <v>788540572.6251842</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4744061470.831671</v>
+        <v>789417698.9273072</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4747092478.606146</v>
+        <v>790309206.0712463</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4750140591.886199</v>
+        <v>791215959.8313591</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4753204232.075768</v>
+        <v>792137108.5044324</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4756282162.264293</v>
+        <v>793073375.62249</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4759374852.638892</v>
+        <v>794025083.0178366</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4762483274.844368</v>
+        <v>794992188.164067</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4765604886.103858</v>
+        <v>795974844.7407006</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4768740776.877911</v>
+        <v>796973584.8345106</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4771891746.117313</v>
+        <v>797988054.2043717</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4775056570.2948</v>
+        <v>799018984.0186512</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4778236318.113056</v>
+        <v>800066792.1170353</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4781431118.614208</v>
+        <v>801130977.9989058</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4784642824.009334</v>
+        <v>802212784.8669724</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4787869733.777068</v>
+        <v>803311952.1505485</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4791114854.427026</v>
+        <v>804428947.2141255</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4794378389.989118</v>
+        <v>805563842.2315201</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4797659650.631762</v>
+        <v>806717487.1527978</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4800963737.498507</v>
+        <v>807890223.9003059</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4804286691.052116</v>
+        <v>809081912.8295367</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4807635745.258732</v>
+        <v>810293359.0288429</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4811008009.602903</v>
+        <v>811525357.3900044</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4814408521.234348</v>
+        <v>812777698.5364616</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4817836008.734747</v>
+        <v>814050681.3709962</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4821297198.787728</v>
+        <v>815345502.0215279</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4824788954.252926</v>
+        <v>816662623.8950702</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4828319535.770556</v>
+        <v>818002217.0776765</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4831886490.676591</v>
+        <v>819364695.5242187</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4835495443.175931</v>
+        <v>820750973.5476282</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4839147583.454853</v>
+        <v>822161481.2280648</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4842848860.10568</v>
+        <v>823597300.6502445</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4846599377.630828</v>
+        <v>825057816.1689429</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4850406705.467948</v>
+        <v>826545276.7281513</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4854269999.457296</v>
+        <v>828059236.2163476</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4858196550.990322</v>
+        <v>829601013.6810662</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4862185183.34874</v>
+        <v>831170428.2702506</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4866249788.116101</v>
+        <v>832769316.4957823</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4870384836.231504</v>
+        <v>834397627.1295176</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4874599692.263483</v>
+        <v>836056649.3136414</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4878898451.353892</v>
+        <v>837746362.672014</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4883286700.640871</v>
+        <v>839468750.6637063</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4887765073.221263</v>
+        <v>841223598.2104913</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4892345576.362738</v>
+        <v>843012283.9182014</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4897029766.412994</v>
+        <v>844835093.7635785</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4901819630.046741</v>
+        <v>846693952.638275</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4906727523.477229</v>
+        <v>848588312.4853477</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4911757609.66356</v>
+        <v>850520235.869579</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4916909536.385939</v>
+        <v>852490054.6503789</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4922195197.017077</v>
+        <v>854499056.9067577</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4927620583.888714</v>
+        <v>856547062.1810045</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4933189500.155491</v>
+        <v>858636877.823867</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4938909463.057789</v>
+        <v>860767958.3727725</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4944786581.877479</v>
+        <v>862941900.7742076</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4950828763.246417</v>
+        <v>865159366.6238124</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4957039258.609961</v>
+        <v>867422225.5238051</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4963428652.670394</v>
+        <v>869729929.7833983</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4970000686.713675</v>
+        <v>872085136.1983855</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4976763289.464465</v>
+        <v>874487536.8150637</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4983723188.82494</v>
+        <v>876938875.5453526</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4990887927.259146</v>
+        <v>879439919.8361796</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4998262619.095074</v>
+        <v>881991932.5285175</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5005856751.53151</v>
+        <v>884595644.6040826</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5013675642.341637</v>
+        <v>887252742.7207001</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5021727479.912211</v>
+        <v>889963062.352132</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5030016709.448863</v>
+        <v>892728535.0112112</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5038554642.216428</v>
+        <v>895549805.4721935</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5047343869.275168</v>
+        <v>898428789.1558216</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5056394742.167563</v>
+        <v>901365702.2587479</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5065712920.652608</v>
+        <v>904362022.6041752</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5075305449.97928</v>
+        <v>907418543.9807379</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5085179939.209044</v>
+        <v>910536667.1797379</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5095342093.851987</v>
+        <v>913717343.4091351</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5105797994.67034</v>
+        <v>916961376.9870715</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5116558180.244619</v>
+        <v>920269931.1882219</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5127626884.14481</v>
+        <v>923644642.8885186</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5139011510.158073</v>
+        <v>927085290.5083716</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5150719651.763454</v>
+        <v>930594541.0805142</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5162754793.805689</v>
+        <v>934172026.0634117</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5175128501.004633</v>
+        <v>937820073.1811165</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5187842065.879645</v>
+        <v>941538132.2258397</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5200904525.333659</v>
+        <v>945329230.320925</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5214320342.199239</v>
+        <v>949192313.6817346</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5228099841.196127</v>
+        <v>953130411.8163549</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5242244536.35485</v>
+        <v>957142623.015885</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5256760818.515832</v>
+        <v>961232127.8325933</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>5271660241.121414</v>
+        <v>965397523.461174</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>5286940031.111692</v>
+        <v>969642182.5426234</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>5302612048.25278</v>
+        <v>973964984.2281321</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>5318679899.419345</v>
+        <v>978369004.9746306</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>5335148446.014764</v>
+        <v>982853138.7661849</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>5352022949.72597</v>
+        <v>987420715.6144035</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>5369311315.863318</v>
+        <v>992070267.9948329</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>5387015412.802454</v>
+        <v>996805169.3744124</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>5405141447.823638</v>
+        <v>1001624561.996832</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>5423694837.828229</v>
+        <v>1006530747.01637</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>5442680320.737215</v>
+        <v>1011523426.037086</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>5462100573.591792</v>
+        <v>1016605174.02397</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>5481963965.604547</v>
+        <v>1021775280.122634</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>5502271024.935725</v>
+        <v>1027036417.716789</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>5523028582.656231</v>
+        <v>1032387955.002316</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>5544239136.059872</v>
+        <v>1037832368.840321</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>5565909990.03807</v>
+        <v>1043369253.443924</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>5588041778.501105</v>
+        <v>1049000992.948353</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>5610638414.031424</v>
+        <v>1054727598.541264</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>5633707955.479185</v>
+        <v>1060550243.30705</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>5657248746.1813</v>
+        <v>1066470174.335593</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>5681268102.033044</v>
+        <v>1072488535.588951</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>5705768087.95845</v>
+        <v>1078605615.813677</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>5730755479.487785</v>
+        <v>1084823370.337017</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>5756229515.851996</v>
+        <v>1091142439.00944</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>5782194322.605524</v>
+        <v>1097563495.957516</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5808657184.208097</v>
+        <v>1104088067.002391</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5835617880.386903</v>
+        <v>1110717079.168869</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5863081201.570941</v>
+        <v>1117451473.701097</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5891047647.944381</v>
+        <v>1124292575.218256</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5919524300.289454</v>
+        <v>1131241408.971714</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5948513444.863752</v>
+        <v>1138298981.359587</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5978017114.551535</v>
+        <v>1145466131.310346</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>6008039646.839729</v>
+        <v>1152744569.999485</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>6038583407.453794</v>
+        <v>1160135269.546921</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6069652773.21994</v>
+        <v>1167639253.990006</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>6101249714.37958</v>
+        <v>1175257982.239471</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6133378007.838001</v>
+        <v>1182992473.864736</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>6166042774.715519</v>
+        <v>1190843898.128958</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>6199244314.278016</v>
+        <v>1198813928.198882</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>6232989024.005107</v>
+        <v>1206903476.804369</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>6267278877.785424</v>
+        <v>1215113866.912553</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>6302118077.391571</v>
+        <v>1223446640.239618</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>6337508756.877973</v>
+        <v>1231903363.612301</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>6373454635.064609</v>
+        <v>1240484682.575485</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>6409963336.824791</v>
+        <v>1249192656.671125</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6447034180.04322</v>
+        <v>1258028718.317027</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6484674877.222361</v>
+        <v>1266993980.861696</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6522886178.275369</v>
+        <v>1276090508.251805</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6561674054.496499</v>
+        <v>1285319494.75577</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6601043849.909977</v>
+        <v>1294682891.70802</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6640999193.164758</v>
+        <v>1304181247.463194</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6681544264.920491</v>
+        <v>1313818106.82004</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6722682909.407969</v>
+        <v>1323593801.135093</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6764423644.591565</v>
+        <v>1333510380.375167</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6806767275.722309</v>
+        <v>1343569695.412539</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6849722073.506098</v>
+        <v>1353774205.758197</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6893292996.682167</v>
+        <v>1364124528.879547</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6937484671.801928</v>
+        <v>1374623629.346509</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6982303983.988386</v>
+        <v>1385273522.288066</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>7027756189.093392</v>
+        <v>1396075332.013949</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>7073848645.01875</v>
+        <v>1407032370.800395</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7120588020.00313</v>
+        <v>1418146108.326098</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7167978997.26286</v>
+        <v>1429418560.442659</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7216030384.016993</v>
+        <v>1440852006.521636</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7264748740.49167</v>
+        <v>1452449963.021533</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>7314141198.511459</v>
+        <v>1464212908.32287</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7364216608.479118</v>
+        <v>1476144945.981583</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7414980752.870172</v>
+        <v>1488247453.380052</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7466443855.057924</v>
+        <v>1500523908.471438</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7518614299.332075</v>
+        <v>1512976021.298454</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7571499501.160285</v>
+        <v>1525607177.209488</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7625108722.828158</v>
+        <v>1538419847.957148</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>7679453069.958447</v>
+        <v>1551416472.633828</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7734540336.419672</v>
+        <v>1564601188.14079</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>7790381980.864827</v>
+        <v>1577975523.911104</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>7846985939.496517</v>
+        <v>1591543465.840082</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>7904364802.951374</v>
+        <v>1605307678.476886</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>7962528670.589451</v>
+        <v>1619271933.132427</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>8021489343.130139</v>
+        <v>1633438298.305544</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>8081257913.848284</v>
+        <v>1647811640.440929</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>8141844973.243807</v>
+        <v>1662394331.161507</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>8203264480.313879</v>
+        <v>1677190382.264134</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>8265528737.502865</v>
+        <v>1692203029.285775</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>8328649218.000633</v>
+        <v>1707436041.436577</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>8392639638.549659</v>
+        <v>1722893721.894276</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>8457516273.094724</v>
+        <v>1738578889.0879</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>8523287273.279172</v>
+        <v>1754496911.740634</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>8589972312.646816</v>
+        <v>1770650283.171007</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>8657582669.070982</v>
+        <v>1787044299.167193</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>8726136613.043556</v>
+        <v>1803682672.890456</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>8795646366.992798</v>
+        <v>1820570271.75868</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>8866128784.953236</v>
+        <v>1837710487.301972</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>8937602070.091541</v>
+        <v>1855109208.102499</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9010077926.596279</v>
+        <v>1872769711.900514</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>9083577903.800001</v>
+        <v>1890697531.166213</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>9158117775.196291</v>
+        <v>1908897253.465574</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>9233714409.124849</v>
+        <v>1927373603.399766</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>9310386338.089048</v>
+        <v>1946131779.460938</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>9388152419.485859</v>
+        <v>1965177460.971099</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>9467031937.529493</v>
+        <v>1984515203.434797</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>9547043047.684996</v>
+        <v>2004150216.406149</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>9628204977.530197</v>
+        <v>2024089092.38973</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>9710539897.575256</v>
+        <v>2044335786.081261</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>9794067291.933235</v>
+        <v>2064897488.35146</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>9878806011.849289</v>
+        <v>2085778822.947139</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>9964780181.349199</v>
+        <v>2106986030.567373</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>10052009965.03187</v>
+        <v>2128525756.214144</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>10140518016.2273</v>
+        <v>2150403315.79034</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>10230324974.09415</v>
+        <v>2172625228.031062</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>10321455359.68253</v>
+        <v>2195197497.510647</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>10413933828.61229</v>
+        <v>2218127399.150997</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>10507780020.28381</v>
+        <v>2241420568.101599</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>10603019417.60924</v>
+        <v>2265084936.468368</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>10699677657.62465</v>
+        <v>2289125640.263159</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>10797777709.95765</v>
+        <v>2313551069.270512</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>10897345118.49651</v>
+        <v>2338367187.405917</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>10998405619.10659</v>
+        <v>2363581772.813383</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>11100982428.03232</v>
+        <v>2389201852.577587</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>11205104646.60178</v>
+        <v>2415234391.443898</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>11310796411.28063</v>
+        <v>2441687094.263894</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>11418084014.72703</v>
+        <v>2468567823.898155</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>11526995512.76915</v>
+        <v>2495883197.330089</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>11637556877.28443</v>
+        <v>2523642083.654566</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>11706863346.98151</v>
+        <v>2546397472.046915</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>11777437582.01035</v>
+        <v>2569543287.382156</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>11849282526.09527</v>
+        <v>2593084446.175806</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>11922431705.47743</v>
+        <v>2617028132.135296</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>11996902854.84972</v>
+        <v>2641382348.294893</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>12072719370.78913</v>
+        <v>2666153291.645896</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>12149905299.52281</v>
+        <v>2691348853.200941</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>12228477877.03378</v>
+        <v>2716975209.170382</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>12308463882.91789</v>
+        <v>2743040211.530872</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>12389883969.00108</v>
+        <v>2769550897.640516</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>12472760894.60807</v>
+        <v>2796514618.466906</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>12557114154.51092</v>
+        <v>2823938903.10076</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>12642971449.52114</v>
+        <v>2851830376.185478</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>12730349033.17874</v>
+        <v>2880196447.792754</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>12819272171.01294</v>
+        <v>2909045757.756967</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>12909762171.60625</v>
+        <v>2938383840.199207</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>13001839928.44598</v>
+        <v>2968219286.962169</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>13095528620.91853</v>
+        <v>2998558982.814799</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>13190847960.4261</v>
+        <v>3029409688.546867</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>13287819130.85373</v>
+        <v>3060779347.666999</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>13386465549.97132</v>
+        <v>3092675077.941347</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>13486804115.10101</v>
+        <v>3125103860.368706</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>13588858406.60532</v>
+        <v>3158073028.755718</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>13692646226.72068</v>
+        <v>3191589094.597942</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>13798186372.92856</v>
+        <v>3225659360.297003</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>13905500577.29624</v>
+        <v>3260290591.184377</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>14014603957.6067</v>
+        <v>3295489635.513497</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>14125518654.30785</v>
+        <v>3331262975.617246</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>14238256833.21875</v>
+        <v>3367617079.691375</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>14352838534.22387</v>
+        <v>3404558373.184359</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>14469280916.88657</v>
+        <v>3442092606.015641</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>14587594368.35716</v>
+        <v>3480226147.692998</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>14707799156.4658</v>
+        <v>3518964930.47512</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>14829904054.90242</v>
+        <v>3558314180.332041</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>14953926545.97945</v>
+        <v>3598279983.229684</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>15079874532.92558</v>
+        <v>3638866587.441125</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>15207761978.24598</v>
+        <v>3680079234.072449</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>15337598007.54861</v>
+        <v>3721922766.856763</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>15469390583.12591</v>
+        <v>3764401660.075916</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>15603148021.42469</v>
+        <v>3807519473.998374</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>15738878957.44071</v>
+        <v>3851280574.441673</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>15876586436.5731</v>
+        <v>3895688606.771215</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>16016275220.32471</v>
+        <v>3940745886.240779</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>16157950246.31841</v>
+        <v>3986455775.153798</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>16301611233.03035</v>
+        <v>4032820624.639124</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>16447260432.36046</v>
+        <v>4079842563.772415</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>16594895033.45844</v>
+        <v>4127522864.275818</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>16744511842.6309</v>
+        <v>4175863633.140585</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>16896109578.76502</v>
+        <v>4224864606.123468</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>17049681367.4717</v>
+        <v>4274526918.171777</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>17205219872.64722</v>
+        <v>4324849825.345849</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>17362715354.35705</v>
+        <v>4375833875.826747</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>17522159263.24038</v>
+        <v>4427477144.238274</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>17683538322.21238</v>
+        <v>4479778228.243418</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>17846839478.7103</v>
+        <v>4532735263.858523</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>17997273353.25145</v>
+        <v>4586232981.440354</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>18149462357.50141</v>
+        <v>4640380445.133926</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>18303386719.00173</v>
+        <v>4695172763.101804</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>18459026667.27567</v>
+        <v>4750607191.60332</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>18616359757.29476</v>
+        <v>4806678517.063559</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>18775363190.87242</v>
+        <v>4863381628.220149</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>18936011172.10173</v>
+        <v>4920710843.470545</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>19098277362.88029</v>
+        <v>4978659180.702556</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>19262130770.61353</v>
+        <v>5037220623.934645</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>19427541375.04364</v>
+        <v>5096386974.435591</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>19594477761.20767</v>
+        <v>5156150539.110787</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>19762904121.32352</v>
+        <v>5216502329.652038</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>19932784657.55545</v>
+        <v>5277433285.388597</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>20104081128.58508</v>
+        <v>5338933216.24556</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>20276754733.52938</v>
+        <v>5400992345.923256</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>20445227269.8861</v>
+        <v>5463738989.685047</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>20614948478.89935</v>
+        <v>5527023027.484024</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>20785875617.72906</v>
+        <v>5590831914.939089</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>20957964272.01191</v>
+        <v>5655153012.637063</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>21131164909.71852</v>
+        <v>5719973248.100572</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>21305430220.89998</v>
+        <v>5785278890.014848</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>21480708516.82838</v>
+        <v>5850997293.244744</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>21656948188.02679</v>
+        <v>5916471949.629855</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>21834097123.67321</v>
+        <v>5980035962.799026</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>22012099736.40457</v>
+        <v>6039731385.712023</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>22223680397.37498</v>
+        <v>6113306275.493183</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>22436139759.74288</v>
+        <v>6181481281.76597</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>22649415384.98434</v>
+        <v>6244802767.167819</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>22863439850.46058</v>
+        <v>6304348456.848358</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>23078147985.07374</v>
+        <v>6361403427.142289</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>23293472371.68506</v>
+        <v>6417232013.660148</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>23509111083.30577</v>
+        <v>6472943917.291657</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>23722423092.80972</v>
+        <v>6529437457.945206</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>23926771199.13988</v>
+        <v>6587390675.543679</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>24114418935.31714</v>
+        <v>6647279047.736644</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>24283795130.95467</v>
+        <v>6699593241.322508</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>24429561145.67886</v>
+        <v>6754004618.064929</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>24553756464.07359</v>
+        <v>6810619069.024395</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>24660602962.69721</v>
+        <v>6869462230.22877</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>24755214476.50028</v>
+        <v>6930500121.362403</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>24842678502.37347</v>
+        <v>6993657411.086907</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>24927503245.4538</v>
+        <v>7058828293.428326</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>25013381208.77238</v>
+        <v>7125889269.716751</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>25103139073.4276</v>
+        <v>7194705520.296288</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>25198793319.72871</v>
+        <v>7265138114.080591</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>25171215707.66783</v>
+        <v>7286674797.217772</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>25152641788.70343</v>
+        <v>7309558028.787487</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>25143218701.95102</v>
+        <v>7333625872.942238</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>25142768696.8662</v>
+        <v>7358727803.591136</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>25150890051.20613</v>
+        <v>7384724935.456278</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>25167033245.15304</v>
+        <v>7411489733.808311</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>25190565642.46551</v>
+        <v>7438638365.513629</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>25220809802.05143</v>
+        <v>7463087749.387028</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>25257080837.11781</v>
+        <v>7477185247.677209</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>25298704550.00784</v>
+        <v>7472116608.394476</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>25340044298.34503</v>
+        <v>7447932708.230001</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>25385196246.00391</v>
+        <v>7397675058.77025</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>25433965748.11083</v>
+        <v>7324280972.438508</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>25485871693.18207</v>
+        <v>7232904554.450656</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>25540468648.11692</v>
+        <v>7129534542.745349</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>25597340802.78398</v>
+        <v>7019957523.252142</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>25655171014.27351</v>
+        <v>6909183077.305327</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>25703232155.40426</v>
+        <v>6801208783.470387</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>25714879890.67429</v>
+        <v>6699006558.89294</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>25659485974.0584</v>
+        <v>6604624956.684036</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>25517426241.90176</v>
+        <v>6519338656.088152</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>25285443510.65197</v>
+        <v>6443810580.483824</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>24973874479.93909</v>
+        <v>6378241105.106874</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>24601011101.95069</v>
+        <v>6322493155.948023</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>24187876499.94291</v>
+        <v>6276199037.145821</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>23754638014.51728</v>
+        <v>6238837672.321066</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>23318618290.05185</v>
+        <v>6209799070.825802</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>22893545265.78271</v>
+        <v>6188430960.69997</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>22489525774.4394</v>
+        <v>6174067028.942111</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>22113435715.07116</v>
+        <v>6166054281.176429</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>21769457021.88709</v>
+        <v>6163766164.864462</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>21459668255.49069</v>
+        <v>6166611343.268574</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>21184555868.34266</v>
+        <v>6174039438.717814</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>20943467347.56846</v>
+        <v>6185543598.314482</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>20734970985.25601</v>
+        <v>6200660327.764538</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>20557141580.30492</v>
+        <v>6218970891.239138</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>20407765506.61117</v>
+        <v>6240095227.306518</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>20284500603.77869</v>
+        <v>6263691444.869835</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>20184988092.65782</v>
+        <v>6289453415.403046</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>20106925578.40324</v>
+        <v>6317107460.54752</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>20048115817.74327</v>
+        <v>6346409524.967687</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>20006504330.66357</v>
+        <v>6377141256.40871</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>19980185730.15795</v>
+        <v>6409111224.459611</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>19967411306.99717</v>
+        <v>6442146752.235188</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>19966596143.99117</v>
+        <v>6476094979.237072</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>19976306839.76071</v>
+        <v>6510821846.511563</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>19995253557.19442</v>
+        <v>6546208717.162081</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>20022280315.41637</v>
+        <v>6582149350.945105</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>20056358710.02495</v>
+        <v>6618551249.95735</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>255011531.6019593</v>
+        <v>88655742.35736069</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
+++ b/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>7438638365.513629</v>
+        <v>7438635531.324885</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>7463087749.387028</v>
+        <v>7463048950.560274</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>7477185247.677209</v>
+        <v>7477000949.988462</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>7472116608.394476</v>
+        <v>7471590089.167496</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>7447932708.230001</v>
+        <v>7446715873.727329</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>7397675058.77025</v>
+        <v>7395326686.490252</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>7324280972.438508</v>
+        <v>7320318683.095544</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>7232904554.450656</v>
+        <v>7226854987.615487</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>7129534542.745349</v>
+        <v>7120971489.480902</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>7019957523.252142</v>
+        <v>7008525584.308103</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>6909183077.305327</v>
+        <v>6894608581.684832</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>6801208783.470387</v>
+        <v>6783301054.023486</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>6699006558.89294</v>
+        <v>6677652867.649948</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>6604624956.684036</v>
+        <v>6579781838.597934</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>6519338656.088152</v>
+        <v>6491021481.509317</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>6443810580.483824</v>
+        <v>6412082848.911379</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>6378241105.106874</v>
+        <v>6343204240.97395</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>6322493155.948023</v>
+        <v>6284277192.307915</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>6276199037.145821</v>
+        <v>6234954532.377482</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>6238837672.321066</v>
+        <v>6194728869.561456</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>6209799070.825802</v>
+        <v>6162998184.366898</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>6188430960.69997</v>
+        <v>6139113609.079107</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>6174067028.942111</v>
+        <v>6122408578.419415</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>6166054281.176429</v>
+        <v>6112227086.164994</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>6163766164.864462</v>
+        <v>6107937472.387991</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>6166611343.268574</v>
+        <v>6108941746.040624</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>6174039438.717814</v>
+        <v>6114681883.244496</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>6185543598.314482</v>
+        <v>6124642751.328428</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>6200660327.764538</v>
+        <v>6138352223.65941</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>6218970891.239138</v>
+        <v>6155382888.145127</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>6240095227.306518</v>
+        <v>6175346028.098156</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>6263691444.869835</v>
+        <v>6197891370.756292</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>6289453415.403046</v>
+        <v>6222704642.063269</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>6317107460.54752</v>
+        <v>6249504498.917107</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>6346409524.967687</v>
+        <v>6278039658.864559</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>6377141256.40871</v>
+        <v>6308084963.259822</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>6409111224.459611</v>
+        <v>6339442615.708363</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>6442146752.235188</v>
+        <v>6371934057.521714</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>6476094979.237072</v>
+        <v>6405401063.101701</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>6510821846.511563</v>
+        <v>6439704626.585558</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>6546208717.162081</v>
+        <v>6474721609.786341</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>6582149350.945105</v>
+        <v>6510341671.382528</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>6618551249.95735</v>
+        <v>6546468581.740669</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>88655742.35736069</v>
+        <v>88644756.05736068</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
+++ b/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>765740476.9219801</v>
+        <v>766036161.559076</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764843186.4364431</v>
+        <v>765399909.6470771</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>764609265.3743387</v>
+        <v>765397230.966552</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764116034.7593992</v>
+        <v>765108571.0821869</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>763665758.8846014</v>
+        <v>764839221.7806975</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>763254340.0535032</v>
+        <v>764588093.9251032</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>762878772.9288357</v>
+        <v>764354114.6081029</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>762535848.291002</v>
+        <v>764136780.0966395</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>762222789.9069825</v>
+        <v>763934997.3329364</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>761937775.6888713</v>
+        <v>763748858.7878906</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>761678426.3164039</v>
+        <v>763577215.6567816</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>761442904.7528056</v>
+        <v>763419705.5346628</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>761230095.7392559</v>
+        <v>763275878.5058975</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>761038480.4102097</v>
+        <v>763145252.7714658</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760867027.3131022</v>
+        <v>763027796.5122873</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>760714382.2106346</v>
+        <v>762923022.9448738</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>760579397.3011948</v>
+        <v>762830588.7212307</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>760461745.4258268</v>
+        <v>762750677.5739375</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>760360692.8796766</v>
+        <v>762682915.3904371</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>760275877.6400875</v>
+        <v>762627321.3109396</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>760206609.0927271</v>
+        <v>762583504.5762452</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>760152511.762825</v>
+        <v>762551444.4014587</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>760112895.2932515</v>
+        <v>762531091.9200835</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>760087575.7310058</v>
+        <v>762522539.0934955</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>760075735.4967388</v>
+        <v>762525265.1644193</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>760077838.6030378</v>
+        <v>762540167.1498311</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>760093050.1396116</v>
+        <v>762566407.9186606</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>760121671.9186164</v>
+        <v>762604424.5888826</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>760163421.7397779</v>
+        <v>762654157.7739567</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>760217905.9869115</v>
+        <v>762715425.5824053</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>760285198.7060713</v>
+        <v>762788307.2760644</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>760365130.6001272</v>
+        <v>762872775.4235002</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>760457532.5755628</v>
+        <v>762968870.2014166</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>760562631.817347</v>
+        <v>763076822.4765112</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>760680261.5341693</v>
+        <v>763196459.4090859</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>760810743.7408731</v>
+        <v>763328320.2027167</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>760953263.1613299</v>
+        <v>763471592.3425705</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>761108423.3138252</v>
+        <v>763626862.5512784</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>761275690.2711564</v>
+        <v>763793774.0245078</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>761455744.2604222</v>
+        <v>763972989.5505404</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>761648159.0143725</v>
+        <v>764164085.009802</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>761853298.775001</v>
+        <v>764367494.0942149</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>762070651.4248791</v>
+        <v>764582773.7272007</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>762300569.573194</v>
+        <v>764810278.0519987</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>762542819.8976628</v>
+        <v>765049775.2803804</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>762797753.1802622</v>
+        <v>765301684.6215496</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>763065479.0302738</v>
+        <v>765566116.9120299</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>763345569.5417149</v>
+        <v>765842645.4730819</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>763638365.1401068</v>
+        <v>766131611.9574701</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>763943556.5209069</v>
+        <v>766432774.7719874</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>764261659.0916926</v>
+        <v>766746583.8628201</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>764592679.173757</v>
+        <v>767073113.0580568</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>764936249.1293494</v>
+        <v>767411995.6403792</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>765292243.506297</v>
+        <v>767763173.1530589</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>765661230.520623</v>
+        <v>768127016.5075139</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>766043280.0548725</v>
+        <v>768503794.731758</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>766437932.0583405</v>
+        <v>768892982.6205065</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>766845255.6316593</v>
+        <v>769294781.5266857</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>767265914.7345538</v>
+        <v>769709659.025849</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>767699265.9019731</v>
+        <v>770137038.341578</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>768145441.2404478</v>
+        <v>770577117.8599564</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>768604682.8245367</v>
+        <v>771030075.0123146</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>769077174.8526102</v>
+        <v>771496160.072034</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>769562270.5457249</v>
+        <v>771974661.8214843</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>770060495.8399401</v>
+        <v>772466107.117155</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>770572096.7974176</v>
+        <v>772970742.9416411</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>771096230.7189692</v>
+        <v>773487792.2616858</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>771633702.6732128</v>
+        <v>774017931.4730695</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>772184543.2558928</v>
+        <v>774561321.4806978</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>772748019.6647633</v>
+        <v>775117101.2185688</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>773325227.1912855</v>
+        <v>775686431.5418041</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>773915055.7435212</v>
+        <v>776268267.5130461</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>774518464.5583731</v>
+        <v>776863504.8509414</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>775135112.128233</v>
+        <v>777471802.9683133</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>775764789.2283615</v>
+        <v>778092889.6335183</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>776407862.4825699</v>
+        <v>778727196.5226759</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>777064057.5375757</v>
+        <v>779374450.2029365</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>777733975.1961838</v>
+        <v>780035188.7770107</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>778416980.015435</v>
+        <v>780708841.5474375</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>779113644.5798479</v>
+        <v>781396045.4351544</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>779823609.2311002</v>
+        <v>782096251.4543127</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>780547221.1570917</v>
+        <v>782809871.5383112</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>781284099.044209</v>
+        <v>783536588.7099549</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>782034886.2962449</v>
+        <v>784277047.2934682</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>782799186.7241476</v>
+        <v>785030717.2123425</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>783577602.2766207</v>
+        <v>785798336.5819434</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>784369432.9552692</v>
+        <v>786579080.924118</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>785175573.071694</v>
+        <v>787373908.6823466</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>785995473.7113369</v>
+        <v>788182272.1693126</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>786829784.4305093</v>
+        <v>789004822.16857</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>787677897.4946395</v>
+        <v>789840952.1727909</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>788540572.6251842</v>
+        <v>790691485.3194181</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>789417698.9273072</v>
+        <v>791556249.5475727</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>790309206.0712463</v>
+        <v>792435175.7547365</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>791215959.8313591</v>
+        <v>793329069.0605773</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>792137108.5044324</v>
+        <v>794237079.2959349</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>793073375.62249</v>
+        <v>795159931.5268861</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>794025083.0178366</v>
+        <v>796098072.2700338</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>794992188.164067</v>
+        <v>797051336.973701</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>795974844.7407006</v>
+        <v>798019942.2220426</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>796973584.8345106</v>
+        <v>799004360.060762</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>797988054.2043717</v>
+        <v>800004298.9488297</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>799018984.0186512</v>
+        <v>801020491.2818553</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>800066792.1170353</v>
+        <v>802053295.1652663</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>801130977.9989058</v>
+        <v>803102229.2103695</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>802212784.8669724</v>
+        <v>804168563.7256083</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>803311952.1505485</v>
+        <v>805252056.9749478</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>804428947.2141255</v>
+        <v>806353116.9977027</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>805563842.2315201</v>
+        <v>807471808.8542423</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>806717487.1527978</v>
+        <v>808608992.7054455</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>807890223.9003059</v>
+        <v>809765072.2533227</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>809081912.8295367</v>
+        <v>810939848.9372706</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>810293359.0288429</v>
+        <v>812134189.420763</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>811525357.3900044</v>
+        <v>813348889.8228228</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>812777698.5364616</v>
+        <v>814583682.1576053</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>814050681.3709962</v>
+        <v>815838926.5962037</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>815345502.0215279</v>
+        <v>817115820.4937797</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>816662623.8950702</v>
+        <v>818414828.4845901</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>818002217.0776765</v>
+        <v>819736121.8819309</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>819364695.5242187</v>
+        <v>821080056.54274</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>820750973.5476282</v>
+        <v>822447607.5369087</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>822161481.2280648</v>
+        <v>823839206.1718394</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>823597300.6502445</v>
+        <v>825255935.7594916</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>825057816.1689429</v>
+        <v>826697240.7979788</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>826545276.7281513</v>
+        <v>828165312.3378989</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>828059236.2163476</v>
+        <v>829659772.6053201</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>829601013.6810662</v>
+        <v>831181933.1401577</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>831170428.2702506</v>
+        <v>832731555.5037711</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>832769316.4957823</v>
+        <v>834310535.84003</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>834397627.1295176</v>
+        <v>835918823.8412228</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>836056649.3136414</v>
+        <v>837557651.3697613</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>837746362.672014</v>
+        <v>839227049.0636715</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>839468750.6637063</v>
+        <v>840929009.6427275</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>841223598.2104913</v>
+        <v>842663318.9491352</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>843012283.9182014</v>
+        <v>844431356.5091593</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>844835093.7635785</v>
+        <v>846233466.9088259</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>846693952.638275</v>
+        <v>848071575.6534097</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>848588312.4853477</v>
+        <v>849945077.8152759</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>850520235.869579</v>
+        <v>851856094.2616812</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>852490054.6503789</v>
+        <v>853804957.4656576</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>854499056.9067577</v>
+        <v>855793013.2973384</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>856547062.1810045</v>
+        <v>857820024.5305921</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>858636877.823867</v>
+        <v>859888856.1027484</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>860767958.3727725</v>
+        <v>861998905.9873551</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>862941900.7742076</v>
+        <v>864151828.5129409</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>865159366.6238124</v>
+        <v>866348285.5819561</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>867422225.5238051</v>
+        <v>868590147.1034298</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>869729929.7833983</v>
+        <v>870876865.6933864</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>872085136.1983855</v>
+        <v>873211098.4544283</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>874487536.8150637</v>
+        <v>875592650.2538049</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>876938875.5453526</v>
+        <v>878023208.5418245</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>879439919.8361796</v>
+        <v>880503484.7128856</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>881991932.5285175</v>
+        <v>883034853.8152897</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>884595644.6040826</v>
+        <v>885617990.6759536</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>887252742.7207001</v>
+        <v>888254581.9527026</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>889963062.352132</v>
+        <v>890944518.7627474</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>892728535.0112112</v>
+        <v>893689732.3121103</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>895549805.4721935</v>
+        <v>896490811.6293278</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>898428789.1558216</v>
+        <v>899349782.808419</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>901365702.2587479</v>
+        <v>902266806.1980474</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>904362022.6041752</v>
+        <v>905243359.3146044</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>907418543.9807379</v>
+        <v>908280290.6697416</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>910536667.1797379</v>
+        <v>911379000.4411397</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>913717343.4091351</v>
+        <v>914540439.2231367</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>916961376.9870715</v>
+        <v>917765410.7202533</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>920269931.1882219</v>
+        <v>921055077.5935436</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>923644642.8885186</v>
+        <v>924411021.5868416</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>927085290.5083716</v>
+        <v>927833129.6461587</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>930594541.0805142</v>
+        <v>931324013.6564814</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>934172026.0634117</v>
+        <v>934883412.7123883</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>937820073.1811165</v>
+        <v>938513491.1553891</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>941538132.2258397</v>
+        <v>942213860.4056393</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>945329230.320925</v>
+        <v>945987492.3691839</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>949192313.6817346</v>
+        <v>949833278.7091248</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>953130411.8163549</v>
+        <v>953754409.2508242</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>957142623.015885</v>
+        <v>957749820.1265317</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>961232127.8325933</v>
+        <v>961822798.0978153</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>965397523.461174</v>
+        <v>965971885.9065393</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>969642182.5426234</v>
+        <v>970200508.3972956</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>973964984.2281321</v>
+        <v>974507604.4582663</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>978369004.9746306</v>
+        <v>978896188.285966</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>982853138.7661849</v>
+        <v>983365152.4732833</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>987420715.6144035</v>
+        <v>987917825.9678133</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>992070267.9948329</v>
+        <v>992552687.0754532</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>996805169.3744124</v>
+        <v>997273161.1821413</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1001624561.996832</v>
+        <v>1002078389.143211</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1006530747.01637</v>
+        <v>1006970723.519179</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1011523426.037086</v>
+        <v>1011949811.849545</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1016605174.02397</v>
+        <v>1017018280.299587</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1021775280.122634</v>
+        <v>1022175364.077143</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1027036417.716789</v>
+        <v>1027423676.064855</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1032387955.002316</v>
+        <v>1032762702.370325</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1037832368.840321</v>
+        <v>1038194799.797153</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1043369253.443924</v>
+        <v>1043719672.289274</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1049000992.948353</v>
+        <v>1049339761.724258</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1054727598.541264</v>
+        <v>1055054907.768189</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1060550243.30705</v>
+        <v>1060866393.119758</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1066470174.335593</v>
+        <v>1066775470.678649</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1072488535.588951</v>
+        <v>1072783216.69519</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1078605615.813677</v>
+        <v>1078889926.275626</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1084823370.337017</v>
+        <v>1085097611.861222</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1091142439.00944</v>
+        <v>1091406795.345981</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1097563495.957516</v>
+        <v>1097818309.39169</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1104088067.002391</v>
+        <v>1104333634.798184</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1110717079.168869</v>
+        <v>1110953530.701936</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1117451473.701097</v>
+        <v>1117679096.230067</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1124292575.218256</v>
+        <v>1124511712.401303</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1131241408.971714</v>
+        <v>1131452186.953628</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1138298981.359587</v>
+        <v>1138501790.839834</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1145466131.310346</v>
+        <v>1145661153.431484</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1152744569.999485</v>
+        <v>1152932092.174522</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1160135269.546921</v>
+        <v>1160315463.214995</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1167639253.990006</v>
+        <v>1167812346.937484</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1175257982.239471</v>
+        <v>1175424201.023936</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1182992473.864736</v>
+        <v>1183152100.521232</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1190843898.128958</v>
+        <v>1190997050.497109</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1198813928.198882</v>
+        <v>1198960878.41754</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1206903476.804369</v>
+        <v>1207044446.520744</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1215113866.912553</v>
+        <v>1215249083.583303</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1223446640.239618</v>
+        <v>1223576266.971972</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1231903363.612301</v>
+        <v>1232027618.236766</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1240484682.575485</v>
+        <v>1240603733.139827</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1249192656.671125</v>
+        <v>1249306726.072201</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1258028718.317027</v>
+        <v>1258137916.937902</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1266993980.861696</v>
+        <v>1267098522.243121</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1276090508.251805</v>
+        <v>1276190556.553874</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1285319494.75577</v>
+        <v>1285415261.598915</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1294682891.70802</v>
+        <v>1294774546.110489</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1304181247.463194</v>
+        <v>1304268895.581226</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1313818106.82004</v>
+        <v>1313901908.744422</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1323593801.135093</v>
+        <v>1323673916.42201</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1333510380.375167</v>
+        <v>1333586919.787976</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1343569695.412539</v>
+        <v>1343642816.868144</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1353774205.758197</v>
+        <v>1353844120.736742</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1364124528.879547</v>
+        <v>1364191290.917923</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1374623629.346509</v>
+        <v>1374687393.807206</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1385273522.288066</v>
+        <v>1385334396.252098</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1396075332.013949</v>
+        <v>1396133469.204526</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1407032370.800395</v>
+        <v>1407087883.609427</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1418146108.326098</v>
+        <v>1418199048.033249</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1429418560.442659</v>
+        <v>1429469078.260357</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1440852006.521636</v>
+        <v>1440900259.806426</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1452449963.021533</v>
+        <v>1452496054.73115</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1464212908.32287</v>
+        <v>1464256940.79998</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1476144945.981583</v>
+        <v>1476186974.412403</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1488247453.380052</v>
+        <v>1488287579.081696</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1500523908.471438</v>
+        <v>1500562278.081522</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1512976021.298454</v>
+        <v>1513012688.472483</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1525607177.209488</v>
+        <v>1525642241.427017</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1538419847.957148</v>
+        <v>1538453362.052621</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1551416472.633828</v>
+        <v>1551448489.13345</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1564601188.14079</v>
+        <v>1564631805.088045</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1577975523.911104</v>
+        <v>1578004793.011218</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1591543465.840082</v>
+        <v>1591571438.105674</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1605307678.476886</v>
+        <v>1605334450.522932</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1619271933.132427</v>
+        <v>1619297555.542418</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1633438298.305544</v>
+        <v>1633462821.354734</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1647811640.440929</v>
+        <v>1647835159.308236</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1662394331.161507</v>
+        <v>1662416850.191596</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1677190382.264134</v>
+        <v>1677211995.814976</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1692203029.285775</v>
+        <v>1692223785.773827</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1707436041.436577</v>
+        <v>1707455989.399978</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1722893721.894276</v>
+        <v>1722912864.862386</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1738578889.0879</v>
+        <v>1738597275.186923</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1754496911.740634</v>
+        <v>1754514544.292563</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1770650283.171007</v>
+        <v>1770667254.28389</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1787044299.167193</v>
+        <v>1787060656.042621</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1803682672.890456</v>
+        <v>1803698418.232661</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1820570271.75868</v>
+        <v>1820585452.357453</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1837710487.301972</v>
+        <v>1837725193.179048</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1855109208.102499</v>
+        <v>1855123305.612838</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1872769711.900514</v>
+        <v>1872783343.429055</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1890697531.166213</v>
+        <v>1890710694.610714</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1908897253.465574</v>
+        <v>1908909950.916631</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1927373603.399766</v>
+        <v>1927385880.419904</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1946131779.460938</v>
+        <v>1946143681.304521</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1965177460.971099</v>
+        <v>1965188989.315597</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1984515203.434797</v>
+        <v>1984526402.70316</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2004150216.406149</v>
+        <v>2004161088.030161</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2024089092.38973</v>
+        <v>2024099597.821859</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2044335786.081261</v>
+        <v>2044345921.537376</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2064897488.35146</v>
+        <v>2064907333.994111</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2085778822.947139</v>
+        <v>2085788436.579163</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2106986030.567373</v>
+        <v>2106995285.715501</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>2128525756.214144</v>
+        <v>2128534811.733783</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2150403315.79034</v>
+        <v>2150412108.222808</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2172625228.031062</v>
+        <v>2172633788.684901</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2195197497.510647</v>
+        <v>2195205911.343991</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2218127399.150997</v>
+        <v>2218135620.94346</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2241420568.101599</v>
+        <v>2241428714.900163</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2265084936.468368</v>
+        <v>2265092954.578098</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2289125640.263159</v>
+        <v>2289133506.449254</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2313551069.270512</v>
+        <v>2313558676.316206</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2338367187.405917</v>
+        <v>2338374574.723897</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2363581772.813383</v>
+        <v>2363588812.618381</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2389201852.577587</v>
+        <v>2389208579.465167</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2415234391.443898</v>
+        <v>2415240844.174005</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2441687094.263894</v>
+        <v>2441693162.502462</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2468567823.898155</v>
+        <v>2468573566.389735</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2495883197.330089</v>
+        <v>2495888601.210467</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2523642083.654566</v>
+        <v>2523647270.470092</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2546397472.046915</v>
+        <v>2546402285.277782</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2569543287.382156</v>
+        <v>2569547873.645792</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2593084446.175806</v>
+        <v>2593088727.06467</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2617028132.135296</v>
+        <v>2617032072.207896</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2641382348.294893</v>
+        <v>2641386152.220503</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2666153291.645896</v>
+        <v>2666156845.597673</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2691348853.200941</v>
+        <v>2691352259.523121</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2716975209.170382</v>
+        <v>2716978331.452926</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2743040211.530872</v>
+        <v>2743043174.987037</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2769550897.640516</v>
+        <v>2769553801.706634</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2796514618.466906</v>
+        <v>2796517398.502613</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2823938903.10076</v>
+        <v>2823941523.446121</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2851830376.185478</v>
+        <v>2851832819.708213</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2880196447.792754</v>
+        <v>2880198801.156144</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2909045757.756967</v>
+        <v>2909047990.427411</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2938383840.199207</v>
+        <v>2938385887.024764</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2968219286.962169</v>
+        <v>2968221287.761933</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2998558982.814799</v>
+        <v>2998560845.225222</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>3029409688.546867</v>
+        <v>3029411454.854049</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>3060779347.666999</v>
+        <v>3060780879.344106</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>3092675077.941347</v>
+        <v>3092676557.836377</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>3125103860.368706</v>
+        <v>3125105300.701602</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>3158073028.755718</v>
+        <v>3158074463.069406</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>3191589094.597942</v>
+        <v>3191590459.382695</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>3225659360.297003</v>
+        <v>3225660534.810781</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>3260290591.184377</v>
+        <v>3260291673.361605</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>3295489635.513497</v>
+        <v>3295490671.003623</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>3331262975.617246</v>
+        <v>3331264009.282507</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>3367617079.691375</v>
+        <v>3367618080.520342</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>3404558373.184359</v>
+        <v>3404559317.053241</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>3442092606.015641</v>
+        <v>3442093511.301157</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3480226147.692998</v>
+        <v>3480227010.174866</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>3518964930.47512</v>
+        <v>3518965705.208033</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>3558314180.332041</v>
+        <v>3558314922.15642</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>3598279983.229684</v>
+        <v>3598280681.107358</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3638866587.441125</v>
+        <v>3638867221.895248</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>3680079234.072449</v>
+        <v>3680079771.018334</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>3721922766.856763</v>
+        <v>3721923302.380811</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>3764401660.075916</v>
+        <v>3764402194.178126</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>3807519473.998374</v>
+        <v>3807520010.609378</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>3851280574.441673</v>
+        <v>3851281117.183795</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>3895688606.771215</v>
+        <v>3895689154.48123</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3940745886.240779</v>
+        <v>3940746303.192792</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>3986455775.153798</v>
+        <v>3986456150.313171</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>4032820624.639124</v>
+        <v>4032821006.910999</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>4079842563.772415</v>
+        <v>4079842945.012146</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4127522864.275818</v>
+        <v>4127523208.322467</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>4175863633.140585</v>
+        <v>4175863935.975323</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>4224864606.123468</v>
+        <v>4224864851.638452</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>4274526918.171777</v>
+        <v>4274527163.014488</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>4324849825.345849</v>
+        <v>4324850069.516289</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>4375833875.826747</v>
+        <v>4375834100.33983</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>4427477144.238274</v>
+        <v>4427477368.130664</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>4479778228.243418</v>
+        <v>4479778451.515115</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>4532735263.858523</v>
+        <v>4532735486.509526</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4586232981.440354</v>
+        <v>4586233203.470664</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>4640380445.133926</v>
+        <v>4640380666.543543</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>4695172763.101804</v>
+        <v>4695172983.890726</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>4750607191.60332</v>
+        <v>4750607411.77155</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4806678517.063559</v>
+        <v>4806678736.611094</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>4863381628.220149</v>
+        <v>4863381809.874703</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>4920710843.470545</v>
+        <v>4920711024.610874</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>4978659180.702556</v>
+        <v>4978659364.682084</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>5037220623.934645</v>
+        <v>5037220807.390285</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>5096386974.435591</v>
+        <v>5096387157.367343</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5156150539.110787</v>
+        <v>5156150721.518651</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>5216502329.652038</v>
+        <v>5216502471.111222</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>5277433285.388597</v>
+        <v>5277433481.030805</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>5338933216.24556</v>
+        <v>5338933411.322731</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>5400992345.923256</v>
+        <v>5400992540.43539</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>5463738989.685047</v>
+        <v>5463739183.632143</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>5527023027.484024</v>
+        <v>5527023220.866084</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5590831914.939089</v>
+        <v>5590832107.756111</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>5655153012.637063</v>
+        <v>5655153204.889048</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>5719973248.100572</v>
+        <v>5719973439.787519</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>5785278890.014848</v>
+        <v>5785279081.136759</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>5850997293.244744</v>
+        <v>5850997483.801618</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>5916471949.629855</v>
+        <v>5916472139.621691</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>5980035962.799026</v>
+        <v>5980036152.225826</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>6039731385.712023</v>
+        <v>6039731574.573785</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>6113306275.493183</v>
+        <v>6113306463.789909</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>6181481281.76597</v>
+        <v>6181481469.497658</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>6244802767.167819</v>
+        <v>6244802954.33447</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>6304348456.848358</v>
+        <v>6304348643.449972</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>6361403427.142289</v>
+        <v>6361403613.178866</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>6417232013.660148</v>
+        <v>6417232199.131687</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>6472943917.291657</v>
+        <v>6472944102.198159</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>6529437457.945206</v>
+        <v>6529437642.286671</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>6587390675.543679</v>
+        <v>6587390859.320107</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>6647279047.736644</v>
+        <v>6647279230.948035</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>6699593241.322508</v>
+        <v>6699593423.968862</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>6754004618.064929</v>
+        <v>6754004800.146246</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>6810619069.024395</v>
+        <v>6810619250.540674</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>6869462230.22877</v>
+        <v>6869462411.180013</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>6930500121.362403</v>
+        <v>6930500301.748608</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>6993657411.086907</v>
+        <v>6993657590.908074</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7058828293.428326</v>
+        <v>7058575963.639893</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7125889269.716751</v>
+        <v>7122283047.92485</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>7194705520.296288</v>
+        <v>7177319567.289192</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>7265138114.080591</v>
+        <v>7214913420.810578</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>7286674797.217772</v>
+        <v>7179302844.735911</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>7309558028.787487</v>
+        <v>7119885561.510461</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>7333625872.942238</v>
+        <v>7039412945.551264</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>7358727803.591136</v>
+        <v>6942836515.30514</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>7384724935.456278</v>
+        <v>6835867090.717943</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>7411489733.808311</v>
+        <v>6723982700.740104</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>7438635531.324885</v>
+        <v>6611887503.406812</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>7463048950.560274</v>
+        <v>6503297952.465577</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>7477000949.988462</v>
+        <v>6400941737.380041</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>7471590089.167496</v>
+        <v>6306663910.659535</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>7446715873.727329</v>
+        <v>6226900408.05384</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>7395326686.490252</v>
+        <v>6156399150.210821</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>7320318683.095544</v>
+        <v>6095453220.726263</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>7226854987.615487</v>
+        <v>6043934733.82719</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>7120971489.480902</v>
+        <v>6001501779.171216</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>7008525584.308103</v>
+        <v>5967668203.145183</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>6894608581.684832</v>
+        <v>5941863889.382259</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>6783301054.023486</v>
+        <v>5923476633.070975</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>6677652867.649948</v>
+        <v>5911881546.791869</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>6579781838.597934</v>
+        <v>5906461178.366602</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>6491021481.509317</v>
+        <v>5906623940.133273</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>6412082848.911379</v>
+        <v>5911808706.587501</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>6343204240.97395</v>
+        <v>5921493121.67183</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>6284277192.307915</v>
+        <v>5935192967.46286</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>6234954532.377482</v>
+        <v>5952465485.228136</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>6194728869.561456</v>
+        <v>5972908155.288429</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>6162998184.366898</v>
+        <v>5996153108.414503</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>6139113609.079107</v>
+        <v>6021872597.214459</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>6122408578.419415</v>
+        <v>6049767730.21934</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>6112227086.164994</v>
+        <v>6079571377.137163</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>6107937472.387991</v>
+        <v>6111044314.271119</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>6108941746.040624</v>
+        <v>6143973095.169992</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>6114681883.244496</v>
+        <v>6178166027.236353</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>6124642751.328428</v>
+        <v>6213452486.520901</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>6138352223.65941</v>
+        <v>6249679939.921967</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>6155382888.145127</v>
+        <v>6286713649.152711</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>6175346028.098156</v>
+        <v>6324431944.96664</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>6197891370.756292</v>
+        <v>6362728717.233105</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>6222704642.063269</v>
+        <v>6401507814.329072</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>6249504498.917107</v>
+        <v>6440684562.732122</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>6278039658.864559</v>
+        <v>6480182477.723499</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>6308084963.259822</v>
+        <v>6519935158.968338</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>6339442615.708363</v>
+        <v>6559882670.298744</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>6371934057.521714</v>
+        <v>6599971980.649581</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>6405401063.101701</v>
+        <v>6640156546.353209</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>6439704626.585558</v>
+        <v>6680394699.97132</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>6474721609.786341</v>
+        <v>6720649451.120564</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>6510341671.382528</v>
+        <v>6760889159.400339</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>6546468581.740669</v>
+        <v>6801083954.396004</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>88644756.05736068</v>
+        <v>88705264.45736068</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
+++ b/Data/model_outputs_baseline/energy/total_carbon_emissions.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>766036161.559076</v>
+        <v>765740476.9219801</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>765399909.6470771</v>
+        <v>764843186.4361897</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>765397230.966552</v>
+        <v>764609265.3742783</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>765108571.0821869</v>
+        <v>764116034.7593387</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>764839221.7806975</v>
+        <v>763665758.8845642</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>764588093.9251032</v>
+        <v>763254340.053442</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>764354114.6081029</v>
+        <v>762878772.928775</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764136780.0966395</v>
+        <v>762535848.2909405</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763934997.3329364</v>
+        <v>762222789.9069211</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763748858.7878906</v>
+        <v>761937775.6888096</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>763577215.6567816</v>
+        <v>761678426.3163409</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763419705.5346628</v>
+        <v>761442904.7527426</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763275878.5058975</v>
+        <v>761230095.7391921</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763145252.7714658</v>
+        <v>761038480.4101453</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763027796.5122873</v>
+        <v>760867027.3130367</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>762923022.9448738</v>
+        <v>760714382.2105676</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>762830588.7212307</v>
+        <v>760579397.3011267</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>762750677.5739375</v>
+        <v>760461745.4257574</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>762682915.3904371</v>
+        <v>760360692.8796055</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>762627321.3109396</v>
+        <v>760275877.6400149</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>762583504.5762452</v>
+        <v>760206609.0926532</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>762551444.4014587</v>
+        <v>760152511.7627485</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>762531091.9200835</v>
+        <v>760112895.2931727</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>762522539.0934955</v>
+        <v>760087575.730924</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>762525265.1644193</v>
+        <v>760075735.4966544</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>762540167.1498311</v>
+        <v>760077838.6029502</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>762566407.9186606</v>
+        <v>760093050.1395203</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>762604424.5888826</v>
+        <v>760121671.9185215</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>762654157.7739567</v>
+        <v>760163421.7396797</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>762715425.5824053</v>
+        <v>760217905.9868087</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>762788307.2760644</v>
+        <v>760285198.7059641</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>762872775.4235002</v>
+        <v>760365130.600015</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>762968870.2014166</v>
+        <v>760457532.5754446</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>763076822.4765112</v>
+        <v>760562631.8172231</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>763196459.4090859</v>
+        <v>760680261.5340393</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>763328320.2027167</v>
+        <v>760810743.740737</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>763471592.3425705</v>
+        <v>760953263.161186</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>763626862.5512784</v>
+        <v>761108423.3136737</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>763793774.0245078</v>
+        <v>761275690.2709972</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>763972989.5505404</v>
+        <v>761455744.2602544</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>764164085.009802</v>
+        <v>761648159.0141954</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>764367494.0942149</v>
+        <v>761853298.7748145</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>764582773.7272007</v>
+        <v>762070651.4246825</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>764810278.0519987</v>
+        <v>762300569.5729868</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>765049775.2803804</v>
+        <v>762542819.8974437</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>765301684.6215496</v>
+        <v>762797753.1800315</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>765566116.9120299</v>
+        <v>763065479.0300308</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>765842645.4730819</v>
+        <v>763345569.5414585</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>766131611.9574701</v>
+        <v>763638365.1398365</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>766432774.7719874</v>
+        <v>763943556.5206214</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>766746583.8628201</v>
+        <v>764261659.0913917</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>767073113.0580568</v>
+        <v>764592679.1734401</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>767411995.6403792</v>
+        <v>764936249.1290154</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>767763173.1530589</v>
+        <v>765292243.5059452</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>768127016.5075139</v>
+        <v>765661230.5202531</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>768503794.731758</v>
+        <v>766043280.0544832</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>768892982.6205065</v>
+        <v>766437932.0579317</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>769294781.5266857</v>
+        <v>766845255.6312287</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>769709659.025849</v>
+        <v>767265914.7341012</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>770137038.341578</v>
+        <v>767699265.9014984</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>770577117.8599564</v>
+        <v>768145441.239949</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>771030075.0123146</v>
+        <v>768604682.8240135</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>771496160.072034</v>
+        <v>769077174.8520614</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>771974661.8214843</v>
+        <v>769562270.5451498</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>772466107.117155</v>
+        <v>770060495.8393381</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>772970742.9416411</v>
+        <v>770572096.7967864</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>773487792.2616858</v>
+        <v>771096230.71831</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>774017931.4730695</v>
+        <v>771633702.6725239</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>774561321.4806978</v>
+        <v>772184543.2551723</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>775117101.2185688</v>
+        <v>772748019.6640112</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>775686431.5418041</v>
+        <v>773325227.1905</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>776268267.5130461</v>
+        <v>773915055.7427032</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>776863504.8509414</v>
+        <v>774518464.55752</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>777471802.9683133</v>
+        <v>775135112.1273453</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>778092889.6335183</v>
+        <v>775764789.2274369</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>778727196.5226759</v>
+        <v>776407862.4816086</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>779374450.2029365</v>
+        <v>777064057.5365764</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>780035188.7770107</v>
+        <v>777733975.1951466</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>780708841.5474375</v>
+        <v>778416980.0143586</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>781396045.4351544</v>
+        <v>779113644.5787313</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>782096251.4543127</v>
+        <v>779823609.2299427</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>782809871.5383112</v>
+        <v>780547221.1558936</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>783536588.7099549</v>
+        <v>781284099.042969</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>784277047.2934682</v>
+        <v>782034886.2949616</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>785030717.2123425</v>
+        <v>782799186.7228209</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>785798336.5819434</v>
+        <v>783577602.2752495</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>786579080.924118</v>
+        <v>784369432.9538532</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>787373908.6823466</v>
+        <v>785175573.0702338</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>788182272.1693126</v>
+        <v>785995473.7098325</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>789004822.16857</v>
+        <v>786829784.4289578</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>789840952.1727909</v>
+        <v>787677897.4930437</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>790691485.3194181</v>
+        <v>788540572.623542</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>791556249.5475727</v>
+        <v>789417698.9256182</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>792435175.7547365</v>
+        <v>790309206.0695111</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>793329069.0605773</v>
+        <v>791215959.8295766</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>794237079.2959349</v>
+        <v>792137108.5026038</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>795159931.5268861</v>
+        <v>793073375.6206135</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>796098072.2700338</v>
+        <v>794025083.0159149</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>797051336.973701</v>
+        <v>794992188.1620982</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>798019942.2220426</v>
+        <v>795974844.738687</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>799004360.060762</v>
+        <v>796973584.8324511</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>800004298.9488297</v>
+        <v>797988054.2022676</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>801020491.2818553</v>
+        <v>799018984.0164999</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>802053295.1652663</v>
+        <v>800066792.1148416</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>803102229.2103695</v>
+        <v>801130977.9966664</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>804168563.7256083</v>
+        <v>802212784.8646897</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>805252056.9749478</v>
+        <v>803311952.1482233</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>806353116.9977027</v>
+        <v>804428947.2117589</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>807471808.8542423</v>
+        <v>805563842.2291137</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>808608992.7054455</v>
+        <v>806717487.1503503</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>809765072.2533227</v>
+        <v>807890223.8978198</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>810939848.9372706</v>
+        <v>809081912.8270133</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>812134189.420763</v>
+        <v>810293359.0262833</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>813348889.8228228</v>
+        <v>811525357.3874098</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>814583682.1576053</v>
+        <v>812777698.5338339</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>815838926.5962037</v>
+        <v>814050681.368335</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>817115820.4937797</v>
+        <v>815345502.0188339</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>818414828.4845901</v>
+        <v>816662623.8923469</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>819736121.8819309</v>
+        <v>818002217.0749243</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>821080056.54274</v>
+        <v>819364695.5214396</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>822447607.5369087</v>
+        <v>820750973.5448246</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>823839206.1718394</v>
+        <v>822161481.2252382</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>825255935.7594916</v>
+        <v>823597300.6473988</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>826697240.7979788</v>
+        <v>825057816.1660737</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>828165312.3378989</v>
+        <v>826545276.7252642</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>829659772.6053201</v>
+        <v>828059236.2134461</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>831181933.1401577</v>
+        <v>829601013.6781507</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>832731555.5037711</v>
+        <v>831170428.2673192</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>834310535.84003</v>
+        <v>832769316.492841</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>835918823.8412228</v>
+        <v>834397627.1265689</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>837557651.3697613</v>
+        <v>836056649.3106865</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>839227049.0636715</v>
+        <v>837746362.6690547</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>840929009.6427275</v>
+        <v>839468750.6607428</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>842663318.9491352</v>
+        <v>841223598.2075279</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>844431356.5091593</v>
+        <v>843012283.9152393</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>846233466.9088259</v>
+        <v>844835093.7606205</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>848071575.6534097</v>
+        <v>846693952.6353236</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>849945077.8152759</v>
+        <v>848588312.4824021</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>851856094.2616812</v>
+        <v>850520235.8666422</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>853804957.4656576</v>
+        <v>852490054.6474546</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>855793013.2973384</v>
+        <v>854499056.9038512</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>857820024.5305921</v>
+        <v>856547062.1781114</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>859888856.1027484</v>
+        <v>858636877.8209895</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>861998905.9873551</v>
+        <v>860767958.369916</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>864151828.5129409</v>
+        <v>862941900.7713728</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>866348285.5819561</v>
+        <v>865159366.6209993</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>868590147.1034298</v>
+        <v>867422284.9787726</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>870876865.6933864</v>
+        <v>869729929.780637</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>873211098.4544283</v>
+        <v>872085136.1956528</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>875592650.2538049</v>
+        <v>874487536.8123623</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>878023208.5418245</v>
+        <v>876938875.5426832</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>880503484.7128856</v>
+        <v>879439919.833544</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>883034853.8152897</v>
+        <v>881991992.241755</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>885617990.6759536</v>
+        <v>884595644.601516</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>888254581.9527026</v>
+        <v>887252683.0337689</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>890944518.7627474</v>
+        <v>889963062.3496447</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>893689732.3121103</v>
+        <v>892728594.5705632</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>896490811.6293278</v>
+        <v>895549805.4697858</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>899349782.808419</v>
+        <v>898428789.1534573</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>902266806.1980474</v>
+        <v>901365702.2564248</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>905243359.3146044</v>
+        <v>904362022.6018957</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>908280290.6697416</v>
+        <v>907418543.9785074</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>911379000.4411397</v>
+        <v>910536667.1775515</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>914540439.2231367</v>
+        <v>913717343.4069955</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>917765410.7202533</v>
+        <v>916961376.9849801</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>921055077.5935436</v>
+        <v>920269931.1861752</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>924411021.5868416</v>
+        <v>923644642.8865224</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>927833129.6461587</v>
+        <v>927085290.506422</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>931324013.6564814</v>
+        <v>930594541.078613</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>934883412.7123883</v>
+        <v>934172026.0615629</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>938513491.1553891</v>
+        <v>937820015.0258915</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>942213860.4056393</v>
+        <v>941538132.2237443</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>945987492.3691839</v>
+        <v>945329230.319221</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>949833278.7091248</v>
+        <v>949192313.6800756</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>953754409.2508242</v>
+        <v>953130411.8147451</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>957749820.1265317</v>
+        <v>957142623.0143224</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>961822798.0978153</v>
+        <v>961232127.8310823</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>965971885.9065393</v>
+        <v>965397523.459709</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>970200508.3972956</v>
+        <v>969642182.5412047</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>974507604.4582663</v>
+        <v>973964984.2267644</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>978896188.285966</v>
+        <v>978369004.973308</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>983365152.4732833</v>
+        <v>982853138.764902</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>987917825.9678133</v>
+        <v>987420715.6131647</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>992552687.0754532</v>
+        <v>992070267.993637</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>997273161.1821413</v>
+        <v>996805169.3732587</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1002078389.143211</v>
+        <v>1001624561.99572</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1006970723.519179</v>
+        <v>1006530747.015304</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1011949811.849545</v>
+        <v>1011523426.036056</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1017018280.299587</v>
+        <v>1016605174.022979</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1022175364.077143</v>
+        <v>1021775280.12168</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1027423676.064855</v>
+        <v>1027036417.715872</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1032762702.370325</v>
+        <v>1032387955.00144</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1038194799.797153</v>
+        <v>1037832422.183812</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1043719672.289274</v>
+        <v>1043369253.443109</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1049339761.724258</v>
+        <v>1049000992.947569</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1055054907.768189</v>
+        <v>1054727598.54051</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1060866393.119758</v>
+        <v>1060550243.306324</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1066775470.678649</v>
+        <v>1066470174.334895</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1072783216.69519</v>
+        <v>1072488535.588282</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1078889926.275626</v>
+        <v>1078605615.813028</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1085097611.861222</v>
+        <v>1084823370.336399</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1091406795.345981</v>
+        <v>1091142439.008837</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1097818309.39169</v>
+        <v>1097563495.956941</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1104333634.798184</v>
+        <v>1104088067.001835</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1110953530.701936</v>
+        <v>1110717079.16833</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1117679096.230067</v>
+        <v>1117451473.700572</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1124511712.401303</v>
+        <v>1124292575.217749</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1131452186.953628</v>
+        <v>1131241408.971222</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1138501790.839834</v>
+        <v>1138298981.359105</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1145661153.431484</v>
+        <v>1145466131.309883</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1152932092.174522</v>
+        <v>1152744569.99903</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1160315463.214995</v>
+        <v>1160135269.546489</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1167812346.937484</v>
+        <v>1167639253.989571</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1175424201.023936</v>
+        <v>1175257982.239039</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1183152100.521232</v>
+        <v>1182992473.864309</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1190997050.497109</v>
+        <v>1190843898.128538</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1198960878.41754</v>
+        <v>1198813928.198464</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1207044446.520744</v>
+        <v>1206903476.803952</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1215249083.583303</v>
+        <v>1215113866.912139</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1223576266.971972</v>
+        <v>1223446640.239202</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1232027618.236766</v>
+        <v>1231903363.61189</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1240603733.139827</v>
+        <v>1240484682.575071</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1249306726.072201</v>
+        <v>1249192656.670713</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1258137916.937902</v>
+        <v>1258028718.316608</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1267098522.243121</v>
+        <v>1266993980.861274</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1276190556.553874</v>
+        <v>1276090508.251375</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1285415261.598915</v>
+        <v>1285319494.755335</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1294774546.110489</v>
+        <v>1294682891.707578</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1304268895.581226</v>
+        <v>1304181247.462747</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1313901908.744422</v>
+        <v>1313818106.819586</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1323673916.42201</v>
+        <v>1323593801.134634</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1333586919.787976</v>
+        <v>1333510380.374704</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1343642816.868144</v>
+        <v>1343569695.412056</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1353844120.736742</v>
+        <v>1353774205.757712</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1364191290.917923</v>
+        <v>1364124528.879045</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1374687393.807206</v>
+        <v>1374623629.346001</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>1385334396.252098</v>
+        <v>1385273522.287554</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>1396133469.204526</v>
+        <v>1396075332.013416</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>1407087883.609427</v>
+        <v>1407032370.799855</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>1418199048.033249</v>
+        <v>1418146108.325547</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>1429469078.260357</v>
+        <v>1429418560.442099</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>1440900259.806426</v>
+        <v>1440852006.521068</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>1452496054.73115</v>
+        <v>1452449963.020944</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>1464256940.79998</v>
+        <v>1464212857.043233</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>1476186974.412403</v>
+        <v>1476144894.804887</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>1488287579.081696</v>
+        <v>1488247526.630518</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1500562278.081522</v>
+        <v>1500523924.200821</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>1513012688.472483</v>
+        <v>1512976033.661226</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>1525642241.427017</v>
+        <v>1525607178.833333</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>1538453362.052621</v>
+        <v>1538419846.3623</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>1551448489.13345</v>
+        <v>1551416474.196604</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>1564631805.088045</v>
+        <v>1564601236.815006</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>1578004793.011218</v>
+        <v>1577975575.517438</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>1591571438.105674</v>
+        <v>1591543440.266508</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>1605334450.522932</v>
+        <v>1605307765.216977</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>1619297555.542418</v>
+        <v>1619271946.983938</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>1633462821.354734</v>
+        <v>1633438258.289534</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>1647835159.308236</v>
+        <v>1647811593.065282</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>1662416850.191596</v>
+        <v>1662394501.745319</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>1677211995.814976</v>
+        <v>1677190376.351863</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>1692223785.773827</v>
+        <v>1692203013.583854</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>1707455989.399978</v>
+        <v>1707436148.975977</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>1722912864.862386</v>
+        <v>1722893673.058722</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1738597275.186923</v>
+        <v>1738579069.139827</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>1754514544.292563</v>
+        <v>1754496937.65008</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1770667254.28389</v>
+        <v>1770650203.404151</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>1787060656.042621</v>
+        <v>1787044136.804245</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1803698418.232661</v>
+        <v>1803682986.013592</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1820585452.357453</v>
+        <v>1820570117.440047</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1837725193.179048</v>
+        <v>1837710604.005753</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1855123305.612838</v>
+        <v>1855109253.619819</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>1872783343.429055</v>
+        <v>1872769673.853887</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>1890710694.610714</v>
+        <v>1890697465.518027</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>1908909950.916631</v>
+        <v>1908897245.563045</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>1927385880.419904</v>
+        <v>1927373607.23264</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1946143681.304521</v>
+        <v>1946131859.224497</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>1965188989.315597</v>
+        <v>1965177452.959785</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>1984526402.70316</v>
+        <v>1984515240.412322</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2004161088.030161</v>
+        <v>2004150372.70243</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2024099597.821859</v>
+        <v>2024088979.531647</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>2044345921.537376</v>
+        <v>2044335866.610195</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2064907333.994111</v>
+        <v>2064897237.543406</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2085788436.579163</v>
+        <v>2085778834.116798</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2106995285.715501</v>
+        <v>2106986194.610503</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>2128534811.733783</v>
+        <v>2128525655.637126</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2150412108.222808</v>
+        <v>2150403091.618322</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2172633788.684901</v>
+        <v>2172625287.280722</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>2195205911.343991</v>
+        <v>2195197390.620488</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2218135620.94346</v>
+        <v>2218127371.952832</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2241428714.900163</v>
+        <v>2241420529.115241</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2265092954.578098</v>
+        <v>2265084740.930285</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2289133506.449254</v>
+        <v>2289125743.032732</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2313558676.316206</v>
+        <v>2313550956.556423</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2338374574.723897</v>
+        <v>2338367149.143146</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2363588812.618381</v>
+        <v>2363581771.233509</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>2389208579.465167</v>
+        <v>2389201795.333169</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2415240844.174005</v>
+        <v>2415234256.891438</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2441693162.502462</v>
+        <v>2441687157.174616</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>2468573566.389735</v>
+        <v>2468567792.178886</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2495888601.210467</v>
+        <v>2495883090.531524</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2523647270.470092</v>
+        <v>2523642171.853259</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2546402285.277782</v>
+        <v>2546397222.933543</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2569547873.645792</v>
+        <v>2569543266.606255</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2593088727.06467</v>
+        <v>2593084191.220693</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2617032072.207896</v>
+        <v>2617028370.557824</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2641386152.220503</v>
+        <v>2641382499.224879</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2666156845.597673</v>
+        <v>2666153347.790795</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>2691352259.523121</v>
+        <v>2691348922.845101</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2716978331.452926</v>
+        <v>2716975282.034798</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2743043174.987037</v>
+        <v>2743040002.718632</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2769553801.706634</v>
+        <v>2769550874.643116</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2796517398.502613</v>
+        <v>2796514556.13952</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2823941523.446121</v>
+        <v>2823938735.967266</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2851832819.708213</v>
+        <v>2851830314.544661</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>2880198801.156144</v>
+        <v>2880196514.823741</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2909047990.427411</v>
+        <v>2909045897.426254</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2938385887.024764</v>
+        <v>2938383861.784703</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2968221287.761933</v>
+        <v>2968219339.919059</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2998560845.225222</v>
+        <v>2998559104.575503</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>3029411454.854049</v>
+        <v>3029409775.278718</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>3060780879.344106</v>
+        <v>3060779471.391999</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>3092676557.836377</v>
+        <v>3092675145.099616</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>3125105300.701602</v>
+        <v>3125103990.42427</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>3158074463.069406</v>
+        <v>3158073061.618378</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>3191590459.382695</v>
+        <v>3191589103.646747</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>3225660534.810781</v>
+        <v>3225659574.11437</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>3260291673.361605</v>
+        <v>3260290741.555774</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>3295490671.003623</v>
+        <v>3295489718.565053</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>3331264009.282507</v>
+        <v>3331263078.339531</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>3367618080.520342</v>
+        <v>3367617064.761317</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>3404559317.053241</v>
+        <v>3404558246.714243</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>3442093511.301157</v>
+        <v>3442092573.158</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3480227010.174866</v>
+        <v>3480226217.998137</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>3518965705.208033</v>
+        <v>3518964892.933471</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>3558314922.15642</v>
+        <v>3558314317.45548</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>3598280681.107358</v>
+        <v>3598279861.921421</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3638867221.895248</v>
+        <v>3638866324.59538</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>3680079771.018334</v>
+        <v>3680079083.310665</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>3721923302.380811</v>
+        <v>3721922662.792175</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>3764402194.178126</v>
+        <v>3764401887.925802</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>3807520010.609378</v>
+        <v>3807519581.149627</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>3851281117.183795</v>
+        <v>3851280592.603827</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>3895689154.48123</v>
+        <v>3895688455.010924</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3940746303.192792</v>
+        <v>3940745780.369897</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>3986456150.313171</v>
+        <v>3986455910.527322</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>4032821006.910999</v>
+        <v>4032820788.084305</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>4079842945.012146</v>
+        <v>4079842585.222016</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4127523208.322467</v>
+        <v>4127522841.10197</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>4175863935.975323</v>
+        <v>4175863761.462976</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>4224864851.638452</v>
+        <v>4224864508.154955</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>4274527163.014488</v>
+        <v>4274526820.67029</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>4324850069.516289</v>
+        <v>4324849902.98123</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>4375834100.33983</v>
+        <v>4375833920.037481</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>4427477368.130664</v>
+        <v>4427477055.933684</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>4479778451.515115</v>
+        <v>4479778202.967784</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>4532735486.509526</v>
+        <v>4532735406.513313</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4586233203.470664</v>
+        <v>4586233014.314321</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>4640380666.543543</v>
+        <v>4640380121.005164</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>4695172983.890726</v>
+        <v>4695172944.802496</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>4750607411.77155</v>
+        <v>4750607228.827269</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>4806678736.611094</v>
+        <v>4806678440.778738</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>4863381809.874703</v>
+        <v>4863381760.963952</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>4920711024.610874</v>
+        <v>4920710556.092194</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>4978659364.682084</v>
+        <v>4978659179.002611</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>5037220807.390285</v>
+        <v>5037220407.123239</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>5096387157.367343</v>
+        <v>5096386763.295958</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5156150721.518651</v>
+        <v>5156150457.138123</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>5216502471.111222</v>
+        <v>5216502299.650131</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>5277433481.030805</v>
+        <v>5277433030.518326</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>5338933411.322731</v>
+        <v>5338933208.514432</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>5400992540.43539</v>
+        <v>5400992156.037694</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>5463739183.632143</v>
+        <v>5463738975.055788</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>5527023220.866084</v>
+        <v>5527022938.970934</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>5590832107.756111</v>
+        <v>5590831928.354095</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>5655153204.889048</v>
+        <v>5655152845.349264</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>5719973439.787519</v>
+        <v>5719973359.252007</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>5785279081.136759</v>
+        <v>5785278818.238548</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>5850997483.801618</v>
+        <v>5850997124.841733</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>5916472139.621691</v>
+        <v>5916471805.732624</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>5980036152.225826</v>
+        <v>5980035975.383335</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>6039731574.573785</v>
+        <v>6039731164.512467</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>6113306463.789909</v>
+        <v>6113306156.255916</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>6181481469.497658</v>
+        <v>6181481119.270269</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>6244802954.33447</v>
+        <v>6244802921.417152</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>6304348643.449972</v>
+        <v>6304348222.645543</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>6361403613.178866</v>
+        <v>6361403696.56326</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>6417232199.131687</v>
+        <v>6417232227.934476</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>6472944102.198159</v>
+        <v>6472944196.422645</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>6529437642.286671</v>
+        <v>6529437499.770573</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>6587390859.320107</v>
+        <v>6587390641.521606</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>6647279230.948035</v>
+        <v>6647278825.464473</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>6699593423.968862</v>
+        <v>6699593140.991073</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>6754004800.146246</v>
+        <v>6754004573.274057</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>6810619250.540674</v>
+        <v>6810619450.991553</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>6869462411.180013</v>
+        <v>6869462244.436758</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>6930500301.748608</v>
+        <v>6930500087.664008</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>6993657590.908074</v>
+        <v>6993657285.088503</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>7058575963.639893</v>
+        <v>7058828388.440185</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>7122283047.92485</v>
+        <v>7125889243.596323</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>7177319567.289192</v>
+        <v>7194705647.92477</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>7214913420.810578</v>
+        <v>7265138141.476666</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>7179302844.735911</v>
+        <v>7286674827.675342</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>7119885561.510461</v>
+        <v>7309558287.741806</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>7039412945.551264</v>
+        <v>7333626032.324787</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>6942836515.30514</v>
+        <v>7358727750.514552</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>6835867090.717943</v>
+        <v>7384724882.206844</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>6723982700.740104</v>
+        <v>7411489601.260645</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>6611887503.406812</v>
+        <v>7438635489.969053</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>6503297952.465577</v>
+        <v>7463048842.887211</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>6400941737.380041</v>
+        <v>7477001208.843323</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>6306663910.659535</v>
+        <v>7471590257.474747</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>6226900408.05384</v>
+        <v>7446715897.189297</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>6156399150.210821</v>
+        <v>7395326805.50883</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>6095453220.726263</v>
+        <v>7320318622.722843</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>6043934733.82719</v>
+        <v>7226854836.929454</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>6001501779.171216</v>
+        <v>7120971392.976465</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>5967668203.145183</v>
+        <v>7008525487.490668</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>5941863889.382259</v>
+        <v>6894608604.683352</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>5923476633.070975</v>
+        <v>6783301142.611933</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>5911881546.791869</v>
+        <v>6677652755.556043</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>5906461178.366602</v>
+        <v>6579781909.773047</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>5906623940.133273</v>
+        <v>6491021601.561974</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>5911808706.587501</v>
+        <v>6412082981.721952</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>5921493121.67183</v>
+        <v>6343204350.245391</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>5935192967.46286</v>
+        <v>6284277292.597638</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>5952465485.228136</v>
+        <v>6234954566.280275</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>5972908155.288429</v>
+        <v>6194728832.704028</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>5996153108.414503</v>
+        <v>6162998316.825184</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>6021872597.214459</v>
+        <v>6139113670.97788</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>6049767730.21934</v>
+        <v>6122408664.255729</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>6079571377.137163</v>
+        <v>6112227271.057311</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>6111044314.271119</v>
+        <v>6107937749.627818</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>6143973095.169992</v>
+        <v>6108941839.658028</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>6178166027.236353</v>
+        <v>6114681815.870831</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>6213452486.520901</v>
+        <v>6124642795.804457</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>6249679939.921967</v>
+        <v>6138352392.102503</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>6286713649.152711</v>
+        <v>6155382918.350238</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>6324431944.96664</v>
+        <v>6175346185.371</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>6362728717.233105</v>
+        <v>6197891529.316479</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>6401507814.329072</v>
+        <v>6222704761.36656</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>6440684562.732122</v>
+        <v>6249504688.330013</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>6480182477.723499</v>
+        <v>6278039850.973717</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>6519935158.968338</v>
+        <v>6308085121.422533</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>6559882670.298744</v>
+        <v>6339442851.455858</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>6599971980.649581</v>
+        <v>6371934275.171966</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>6640156546.353209</v>
+        <v>6405401211.150755</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>6680394699.97132</v>
+        <v>6439704769.239981</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>6720649451.120564</v>
+        <v>6474721800.526198</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>6760889159.400339</v>
+        <v>6510341859.042048</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>6801083954.396004</v>
+        <v>6546468524.07089</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>88705264.45736068</v>
+        <v>88644756.06193358</v>
       </c>
     </row>
   </sheetData>
